--- a/NetRealmsNanSetup/nanDECK/cards2.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TK\Desktop\nanDECK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BDE107-E1FC-4415-8E65-A5E697A394D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950A7B75-FD7F-4DB8-B2E0-18F881BFC897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="2" activeTab="4" xr2:uid="{B6057150-7C73-433A-9315-C43DECCCCE72}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="1331">
   <si>
     <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_commonr.png</t>
   </si>
@@ -3921,118 +3921,121 @@
     <t>Encrypted Abyss</t>
   </si>
   <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\AlgorithmicHarmony.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\ArcaneCompiler.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\RunesoftheSource.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\EchoofFunctions.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\InterfaceOverlay.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\DebuggingField.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\CompiledVision.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\EncryptedShield.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\LogicOverflow.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\SyntaxSurge.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\ParallelConstructs.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\QuantumCompiler.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\StackOverflow.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\RecursiveShielding.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\BinaryBloom.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\DaemonsPact.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\CoreReboot.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\CompiledWisdom.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\GlyphCompiler.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\PatchCycle.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\RecursiveThreads.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\LineofWarding.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\SystemPurge.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\WebofDeceit.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\EchoChamber.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\WatchersCurse.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\PuppetStrings.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\DarkMarket.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\VeilofAnonymity.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\CatfishsCharm.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\ForumFirestorm.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\DoxxVault.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\PhishingWard.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\ShadowCache.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\EchoesofInfamy.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\VirusGarden.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\ReputationShredder.JFIF</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\EternalWhisper.JFIF</t>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\ArcaneCompiler.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\RunesoftheSource.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\EchoofFunctions.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\CompiledWisdom.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\GlyphCompiler.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\AlgorithmicHarmony.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\PatchCycle.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\RecursiveThreads.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\LineofWarding.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\InterfaceOverlay.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\DebuggingField.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\CompiledVision.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\EncryptedShield.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\LogicOverflow.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\SyntaxSurge.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\ParallelConstructs.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\QuantumCompiler.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\StackOverflow.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\RecursiveShielding.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\BinaryBloom.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\DaemonsPact.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\CoreReboot.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Code\Programs\SystemPurge.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\WebofDeceit.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\EchoChamber.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\PuppetStrings.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\DarkMarket.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\VeilofAnonymity.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\CatfishsCharm.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\ForumFirestorm.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\DoxxVault.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\WatchersCurse.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\PhishingWard.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\ShadowCache.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\EchoesofInfamy.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\VirusGarden.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\ReputationShredder.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\EternalWhisper.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\BlackHatCovenant.png</t>
   </si>
 </sst>
 </file>
@@ -15123,8 +15126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E2B55B-907C-44E7-A92E-00A1BB478166}">
   <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15198,7 +15201,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E2" t="s">
         <v>184</v>
@@ -15233,7 +15236,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E3" t="s">
         <v>183</v>
@@ -15271,7 +15274,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E4" t="s">
         <v>185</v>
@@ -15303,7 +15306,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
       <c r="E5" t="s">
         <v>183</v>
@@ -15338,7 +15341,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>1310</v>
+        <v>1296</v>
       </c>
       <c r="E6" t="s">
         <v>184</v>
@@ -15370,7 +15373,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="E7" t="s">
         <v>184</v>
@@ -15405,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="E8" t="s">
         <v>185</v>
@@ -15437,7 +15440,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
       <c r="E9" t="s">
         <v>184</v>
@@ -15472,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
       <c r="E10" t="s">
         <v>185</v>
@@ -15504,7 +15507,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="E11" t="s">
         <v>183</v>
@@ -15536,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="E12" t="s">
         <v>184</v>
@@ -15568,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="E13" t="s">
         <v>185</v>
@@ -15600,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="E14" t="s">
         <v>184</v>
@@ -15632,7 +15635,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="E15" t="s">
         <v>182</v>
@@ -15664,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>1301</v>
+        <v>1306</v>
       </c>
       <c r="E16" t="s">
         <v>185</v>
@@ -15699,7 +15702,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="E17" t="s">
         <v>184</v>
@@ -15734,7 +15737,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="E18" t="s">
         <v>183</v>
@@ -15766,7 +15769,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
       <c r="E19" t="s">
         <v>185</v>
@@ -15804,7 +15807,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="E20" t="s">
         <v>185</v>
@@ -15836,7 +15839,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E21" t="s">
         <v>184</v>
@@ -15868,7 +15871,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="E22" t="s">
         <v>183</v>
@@ -15906,7 +15909,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1308</v>
+        <v>1313</v>
       </c>
       <c r="E23" t="s">
         <v>186</v>
@@ -15998,7 +16001,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -16012,7 +16015,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -16026,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -16040,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -16054,7 +16057,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -16068,7 +16071,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -16082,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -16178,6 +16181,9 @@
       </c>
       <c r="C40" t="s">
         <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">

--- a/NetRealmsNanSetup/nanDECK/cards2.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TK\Desktop\nanDECK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Twizt\OneDrive\Desktop\Github\NetRealm-XGCTCG\NetRealmsNanSetup\nanDECK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950A7B75-FD7F-4DB8-B2E0-18F881BFC897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E886B-2B3D-4FEE-8995-46EB481A85FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="2" activeTab="4" xr2:uid="{B6057150-7C73-433A-9315-C43DECCCCE72}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="4" xr2:uid="{B6057150-7C73-433A-9315-C43DECCCCE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="1476">
   <si>
     <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_commonr.png</t>
   </si>
@@ -3714,9 +3714,6 @@
     <t>System Purge</t>
   </si>
   <si>
-    <t>Program</t>
-  </si>
-  <si>
     <t>When System Purge enters the Grid, exile all Programs your opponents control.</t>
   </si>
   <si>
@@ -4035,7 +4032,445 @@
     <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\EternalWhisper.png</t>
   </si>
   <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\BlackHatCovenant.png</t>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\BlackHatCovenant.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\CorruptedNexus.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\MimicCurse.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\ForgottenFiles.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\MalwareTrap.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\OblivionsWhispers.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\DigitalParasite.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Creep\Programs\EncryptedAbyss.png</t>
+  </si>
+  <si>
+    <t>Code Program</t>
+  </si>
+  <si>
+    <t>Creep Program</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, exile a card from your opponent’s library. If it’s a Relic, you may play it without paying its energy cost.</t>
+  </si>
+  <si>
+    <t>Attach to target Relic. That Relic doesn’t untap during its controller’s untap step unless they pay 2 energy.</t>
+  </si>
+  <si>
+    <t>Whenever a player discards a card, you may exile it. If you do, each opponent loses 1 Integrity.</t>
+  </si>
+  <si>
+    <t>When an opponent plays a Relic, you may pay 2 energy. If you do, counter it unless its controller pays 3 energy.</t>
+  </si>
+  <si>
+    <t>Whenever a card is exiled, each opponent loses 1 Integrity.</t>
+  </si>
+  <si>
+    <t>When Mimic Curse enters the Grid, choose a Unit. It becomes a copy of that Unit but loses its abilities.</t>
+  </si>
+  <si>
+    <t>At the beginning of your end step, each opponent loses Integrity equal to the number of Units you control with deathtouch.</t>
+  </si>
+  <si>
+    <t>Units you control have “Whenever this Unit deals damage to a player, gain control of target Relic that player controls.”</t>
+  </si>
+  <si>
+    <t>Whenever an opponent draws a card, they must reveal it. If it’s a Relic, they lose 2 Integrity.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit an opponent controls is destroyed, exile it and reduce that player’s Integrity by 1.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent casts a Program, create a 1/1 black Virus Unit token with deathtouch.</t>
+  </si>
+  <si>
+    <t>At the beginning of each opponent’s upkeep, they must discard a card unless they lose 3 Integrity.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit dies, you may exile it. If you do, add 1 energy of any type.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent casts a Relic, you may exile it unless they pay 3 energy.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent loses Integrity, you may draw a card.</t>
+  </si>
+  <si>
+    <t>Whenever a player casts a Program, they must sacrifice a Unit unless they pay 2 energy.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, each opponent loses 1 Integrity unless they discard a card.</t>
+  </si>
+  <si>
+    <t>Units you control have hexproof as long as you have no cards in hand.</t>
+  </si>
+  <si>
+    <t>At the beginning of each opponent’s upkeep, they must pay 1 energy or sacrifice a relic.</t>
+  </si>
+  <si>
+    <t>Gain control of target 1-cost Unit until end of turn. It gains +1/+0 and haste.</t>
+  </si>
+  <si>
+    <t>Whenever a player draws a card, they lose 1 Integrity if they already have a card with the same name in their hand.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent searches their library, they lose 2 Integrity.</t>
+  </si>
+  <si>
+    <t>One click and you're caught.</t>
+  </si>
+  <si>
+    <t>Reinforced lies become truth.</t>
+  </si>
+  <si>
+    <t>A simple tug, and they’ll do anything.</t>
+  </si>
+  <si>
+    <t>Everything has a price, but some prices are too high.</t>
+  </si>
+  <si>
+    <t>Hiding in plain sight.</t>
+  </si>
+  <si>
+    <t>A smile, a lie, a stolen soul.</t>
+  </si>
+  <si>
+    <t>One post, endless destruction.</t>
+  </si>
+  <si>
+    <t>Knowledge is power, but stolen knowledge is control.</t>
+  </si>
+  <si>
+    <t>They’re always watching, waiting.</t>
+  </si>
+  <si>
+    <t>One wrong click, and it’s gone forever.</t>
+  </si>
+  <si>
+    <t>What’s lost is never truly gone.</t>
+  </si>
+  <si>
+    <t>The internet never forgets.</t>
+  </si>
+  <si>
+    <t>Beautiful but deadly—like all forbidden things.</t>
+  </si>
+  <si>
+    <t>One post, and their name disappears forever.</t>
+  </si>
+  <si>
+    <t>The whisper spreads faster than truth ever could.</t>
+  </si>
+  <si>
+    <t>Power is for those bold enough to take it.</t>
+  </si>
+  <si>
+    <t>Everything connects, and every connection is a weakness.</t>
+  </si>
+  <si>
+    <t>You thought it was a friend, but it’s your worst enemy.</t>
+  </si>
+  <si>
+    <t>Once buried, never forgotten.</t>
+  </si>
+  <si>
+    <t>A simple click can undo everything.</t>
+  </si>
+  <si>
+    <t>The softest whispers carry the heaviest secrets.</t>
+  </si>
+  <si>
+    <t>It feeds on progress.</t>
+  </si>
+  <si>
+    <t>The deeper you go, the darker it gets.</t>
+  </si>
+  <si>
+    <t>Echoes of Accusation</t>
+  </si>
+  <si>
+    <t>The Lolcow Effect</t>
+  </si>
+  <si>
+    <t>Flame War Inciter</t>
+  </si>
+  <si>
+    <t>Cancel Culture Manifest</t>
+  </si>
+  <si>
+    <t>Drama Queen's Proclamation</t>
+  </si>
+  <si>
+    <t>Tabloid Tactics</t>
+  </si>
+  <si>
+    <t>Fabricated Evidence</t>
+  </si>
+  <si>
+    <t>Public Outcry</t>
+  </si>
+  <si>
+    <t>Digital Witch Hunt</t>
+  </si>
+  <si>
+    <t>Troll’s Playground</t>
+  </si>
+  <si>
+    <t>Clout Chaser's Arena</t>
+  </si>
+  <si>
+    <t>Internet Trial by Fire</t>
+  </si>
+  <si>
+    <t>Echo Chamber Nexus</t>
+  </si>
+  <si>
+    <t>Feigning Apology</t>
+  </si>
+  <si>
+    <t>Conflict Algorithm</t>
+  </si>
+  <si>
+    <t>Cloud of Misunderstanding</t>
+  </si>
+  <si>
+    <t>Piling On</t>
+  </si>
+  <si>
+    <t>Social Fallout</t>
+  </si>
+  <si>
+    <t>Reputation Recycler</t>
+  </si>
+  <si>
+    <t>Frenzy Feed</t>
+  </si>
+  <si>
+    <t>Virtue Signal Beacon</t>
+  </si>
+  <si>
+    <t>Cancel Culture Circuit</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\EchoesofAccusation.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\TheLolcowEffect.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\FlameWarInciter.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CancelCultureManifest.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\DramaQueensProclamation.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\TabloidTactics.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\FabricatedEvidence.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\PublicOutcry.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\DigitalWitchHunt.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\TrollsPlayground.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CloutChasersArena.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\InternetTrialbyFire.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\EchoChamberNexus.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\FeigningApology.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\ConflictAlgorithm.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CloudofMisunderstanding.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\PilingOn.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\SocialFallout.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\ReputationRecycler.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\FrenzyFeed.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\VirtueSignalBeacon.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\DramaMagnet.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CancelCultureCircuit.jpg</t>
+  </si>
+  <si>
+    <t>When Cancel Culture Circuit enters the Grid, exile all opposing Units with Integrity of 4 or less. Whenever an opponent plays a new Unit, they must pay 2 additional energy or have it exiled immediately.</t>
+  </si>
+  <si>
+    <t>At the beginning of your end step, target opponent must choose one: exile a card from their hand or lose 2 Integrity.</t>
+  </si>
+  <si>
+    <t>Drama Program</t>
+  </si>
+  <si>
+    <t>Sacrifice this Program: Target Unit gains +2/+2 until end of turn.</t>
+  </si>
+  <si>
+    <t>eginning of each player’s turn, that player may exile a card from their hand. If they don’t, they lose 3 Integrity.</t>
+  </si>
+  <si>
+    <t>Sacrifice a Unit: Restore 3 Integrity to yourself or target player.</t>
+  </si>
+  <si>
+    <t>When Social Fallout enters the Grid, all opponents discard a card and lose 3 Integrity.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent loses Integrity, they lose an additional point.</t>
+  </si>
+  <si>
+    <t>Opponents cannot target your Units with abilities unless they pay 2 additional energy.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, target opponent loses 2 Integrity unless they exile a card from their hand.</t>
+  </si>
+  <si>
+    <t>Sacrifice this Program: Restore 3 Integrity to an opponent and draw two cards.</t>
+  </si>
+  <si>
+    <t>Units you control gain +1/+1 for each other Unit you control that shares the same type.</t>
+  </si>
+  <si>
+    <t>When Internet Trial by Fire enters the Grid, exile all opposing Units with Integrity less than 3.</t>
+  </si>
+  <si>
+    <t>At the beginning of each player’s turn, they must pay 1 energy or lose 2 Integrity for each Unit they control.</t>
+  </si>
+  <si>
+    <t>Whenever a player casts a Unit spell, they lose 1 Integrity unless they pay 1 energy.</t>
+  </si>
+  <si>
+    <t>When this Program enters the Grid, choose an opponent. That player exiles two Units they control and loses Integrity equal to their total power.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit deals combat damage to you, its controller loses 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Exile target Unit. If that Unit was a Mythic, you gain 4 Integrity.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent gains Integrity, they lose 2 additional Integrity instead.</t>
+  </si>
+  <si>
+    <t>All Units you control gain +1/+1 for each Integrity an opponent has lost this turn.</t>
+  </si>
+  <si>
+    <t>When this Program enters the Grid, exile target Unit an opponent controls. If that Unit is a Mythic, exile all other Units with the same name.</t>
+  </si>
+  <si>
+    <t>Whenever a player casts a Program, deal 1 damage to each Unit they control.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit an opponent controls takes damage, they lose 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent draws a card, they lose 1 Integrity if they control three or more Units.</t>
+  </si>
+  <si>
+    <t>Whispers spread faster than facts.</t>
+  </si>
+  <si>
+    <t>Laughingstocks generate endless fodder.</t>
+  </si>
+  <si>
+    <t>Throwing fuel on the fire—an art form perfected.</t>
+  </si>
+  <si>
+    <t>One wrong step, and the mob remembers forever.</t>
+  </si>
+  <si>
+    <t>She thrives on chaos, crowning herself in controversy.</t>
+  </si>
+  <si>
+    <t>Twist the story, reap the clicks.</t>
+  </si>
+  <si>
+    <t>The truth doesn’t matter when a lie is more entertaining.</t>
+  </si>
+  <si>
+    <t>The louder the noise, the heavier the guilt.</t>
+  </si>
+  <si>
+    <t>Online, everyone’s a suspect.</t>
+  </si>
+  <si>
+    <t>Where chaos reigns, trolls thrive.</t>
+  </si>
+  <si>
+    <t>Fame comes at a price, even in the spotlight of the web.</t>
+  </si>
+  <si>
+    <t>No one escapes judgment in the court of online opinion.</t>
+  </si>
+  <si>
+    <t>The louder the agreement, the deeper the void of dissent.</t>
+  </si>
+  <si>
+    <t>A performance for the crowd, not the wronged.</t>
+  </si>
+  <si>
+    <t>The system thrives on discord.</t>
+  </si>
+  <si>
+    <t>In the haze of miscommunication, chaos reigns supreme.</t>
+  </si>
+  <si>
+    <t>The mob always adds weight to the fall.</t>
+  </si>
+  <si>
+    <t>The aftermath is often louder than the drama itself.</t>
+  </si>
+  <si>
+    <t>Rebuilding an image is easier when no one remembers the truth.</t>
+  </si>
+  <si>
+    <t>Feeding the fire is easier than quelling it.</t>
+  </si>
+  <si>
+    <t>It’s all for show, but the effects are undeniable.</t>
+  </si>
+  <si>
+    <t>It’s impossible to resist the pull of chaos.</t>
+  </si>
+  <si>
+    <t>A relentless loop, judging and erasing.</t>
   </si>
 </sst>
 </file>
@@ -4531,20 +4966,20 @@
       <selection activeCell="B27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" customWidth="1"/>
-    <col min="3" max="3" width="83.42578125" customWidth="1"/>
-    <col min="4" max="4" width="58.5703125" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" customWidth="1"/>
+    <col min="3" max="3" width="83.44140625" customWidth="1"/>
+    <col min="4" max="4" width="58.5546875" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" customWidth="1"/>
     <col min="9" max="9" width="102" customWidth="1"/>
-    <col min="10" max="10" width="48.42578125" customWidth="1"/>
-    <col min="14" max="14" width="88.28515625" customWidth="1"/>
-    <col min="15" max="15" width="56.7109375" customWidth="1"/>
+    <col min="10" max="10" width="48.44140625" customWidth="1"/>
+    <col min="14" max="14" width="88.33203125" customWidth="1"/>
+    <col min="15" max="15" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4591,7 +5026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>200</v>
       </c>
@@ -4614,7 +5049,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>200</v>
       </c>
@@ -4637,7 +5072,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>200</v>
       </c>
@@ -4660,7 +5095,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>200</v>
       </c>
@@ -4683,7 +5118,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>206</v>
       </c>
@@ -4706,7 +5141,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>206</v>
       </c>
@@ -4729,7 +5164,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>206</v>
       </c>
@@ -4752,7 +5187,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>206</v>
       </c>
@@ -4775,7 +5210,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>211</v>
       </c>
@@ -4798,7 +5233,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>211</v>
       </c>
@@ -4821,7 +5256,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>211</v>
       </c>
@@ -4844,7 +5279,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>211</v>
       </c>
@@ -4867,7 +5302,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>216</v>
       </c>
@@ -4890,7 +5325,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>216</v>
       </c>
@@ -4913,7 +5348,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>216</v>
       </c>
@@ -4936,7 +5371,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>216</v>
       </c>
@@ -4959,7 +5394,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>221</v>
       </c>
@@ -4982,7 +5417,7 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>221</v>
       </c>
@@ -5005,7 +5440,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>221</v>
       </c>
@@ -5028,7 +5463,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>221</v>
       </c>
@@ -5051,7 +5486,7 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>226</v>
       </c>
@@ -5074,7 +5509,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>226</v>
       </c>
@@ -5097,7 +5532,7 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>226</v>
       </c>
@@ -5120,7 +5555,7 @@
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>226</v>
       </c>
@@ -5143,7 +5578,7 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>231</v>
       </c>
@@ -5166,7 +5601,7 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>231</v>
       </c>
@@ -5189,7 +5624,7 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>231</v>
       </c>
@@ -5212,7 +5647,7 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>231</v>
       </c>
@@ -5235,7 +5670,7 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5252,7 +5687,7 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>236</v>
       </c>
@@ -5287,7 +5722,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>243</v>
       </c>
@@ -5322,7 +5757,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>249</v>
       </c>
@@ -5357,7 +5792,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>255</v>
       </c>
@@ -5392,7 +5827,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>261</v>
       </c>
@@ -5427,7 +5862,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>267</v>
       </c>
@@ -5462,7 +5897,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -5479,7 +5914,7 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -5496,7 +5931,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -5513,7 +5948,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -5530,7 +5965,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -5547,7 +5982,7 @@
       <c r="N41" s="11"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -5564,7 +5999,7 @@
       <c r="N42" s="11"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -5581,7 +6016,7 @@
       <c r="N43" s="11"/>
       <c r="O43" s="10"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -5598,7 +6033,7 @@
       <c r="N44" s="11"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -5615,7 +6050,7 @@
       <c r="N45" s="11"/>
       <c r="O45" s="10"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -5632,7 +6067,7 @@
       <c r="N46" s="11"/>
       <c r="O46" s="10"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -5649,7 +6084,7 @@
       <c r="N47" s="11"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -5666,7 +6101,7 @@
       <c r="N48" s="11"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5683,7 +6118,7 @@
       <c r="N49" s="11"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5700,7 +6135,7 @@
       <c r="N50" s="11"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -5717,7 +6152,7 @@
       <c r="N51" s="11"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5734,7 +6169,7 @@
       <c r="N52" s="11"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5751,7 +6186,7 @@
       <c r="N53" s="11"/>
       <c r="O53" s="10"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -5768,7 +6203,7 @@
       <c r="N54" s="11"/>
       <c r="O54" s="10"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -5810,25 +6245,25 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" customWidth="1"/>
-    <col min="10" max="10" width="114.7109375" customWidth="1"/>
-    <col min="11" max="11" width="97.42578125" customWidth="1"/>
-    <col min="12" max="12" width="128.85546875" customWidth="1"/>
-    <col min="15" max="15" width="46.7109375" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" customWidth="1"/>
+    <col min="10" max="10" width="114.6640625" customWidth="1"/>
+    <col min="11" max="11" width="97.44140625" customWidth="1"/>
+    <col min="12" max="12" width="128.88671875" customWidth="1"/>
+    <col min="15" max="15" width="46.6640625" customWidth="1"/>
+    <col min="16" max="16" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5878,7 +6313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>274</v>
       </c>
@@ -5920,7 +6355,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>282</v>
       </c>
@@ -5962,7 +6397,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>289</v>
       </c>
@@ -6004,7 +6439,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>296</v>
       </c>
@@ -6046,7 +6481,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>303</v>
       </c>
@@ -6088,7 +6523,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>310</v>
       </c>
@@ -6170,19 +6605,19 @@
       <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="60.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="131" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="90.28515625" customWidth="1"/>
+    <col min="15" max="15" width="90.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -6233,7 +6668,7 @@
       </c>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -6271,7 +6706,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -6309,7 +6744,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -6353,7 +6788,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -6391,7 +6826,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -6429,7 +6864,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -6470,7 +6905,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -6508,7 +6943,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -6546,7 +6981,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -6587,7 +7022,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -6625,7 +7060,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -6663,7 +7098,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -6704,7 +7139,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -6742,7 +7177,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -6780,7 +7215,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -6818,7 +7253,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -6856,7 +7291,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -6894,7 +7329,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -6935,7 +7370,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -6973,7 +7408,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -7014,7 +7449,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -7055,7 +7490,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -7093,7 +7528,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -7137,7 +7572,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -7175,7 +7610,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -7213,7 +7648,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
@@ -7251,7 +7686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -7292,7 +7727,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -7330,7 +7765,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -7368,7 +7803,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -7409,7 +7844,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -7447,7 +7882,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -7485,7 +7920,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -7523,7 +7958,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -7564,7 +7999,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
@@ -7602,7 +8037,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -7646,7 +8081,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -7684,7 +8119,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -7722,7 +8157,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -7760,7 +8195,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -7801,7 +8236,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -7839,7 +8274,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -7877,7 +8312,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -7918,7 +8353,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -7962,7 +8397,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -8000,7 +8435,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -8044,7 +8479,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
@@ -8079,7 +8514,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
@@ -8114,7 +8549,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
@@ -8149,7 +8584,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
@@ -8184,7 +8619,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
@@ -8222,7 +8657,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
@@ -8257,7 +8692,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
@@ -8292,7 +8727,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
@@ -8327,7 +8762,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
@@ -8362,7 +8797,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
@@ -8397,7 +8832,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
@@ -8435,7 +8870,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
@@ -8470,7 +8905,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>13</v>
       </c>
@@ -8505,7 +8940,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
@@ -8540,7 +8975,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
@@ -8575,7 +9010,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
@@ -8610,7 +9045,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
@@ -8645,7 +9080,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
@@ -8680,7 +9115,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
@@ -8718,7 +9153,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
@@ -8756,7 +9191,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
@@ -8791,7 +9226,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>14</v>
       </c>
@@ -8826,7 +9261,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>14</v>
       </c>
@@ -8861,7 +9296,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
@@ -8902,7 +9337,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
@@ -8937,7 +9372,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
@@ -8972,7 +9407,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
@@ -9007,7 +9442,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
@@ -9045,7 +9480,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
@@ -9080,7 +9515,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
@@ -9115,7 +9550,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
@@ -9153,7 +9588,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
@@ -9188,7 +9623,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
@@ -9223,7 +9658,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
@@ -9258,7 +9693,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
@@ -9296,7 +9731,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
@@ -9331,7 +9766,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
@@ -9366,7 +9801,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
@@ -9404,7 +9839,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
@@ -9439,7 +9874,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
@@ -9480,7 +9915,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>15</v>
       </c>
@@ -9521,7 +9956,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>15</v>
       </c>
@@ -9559,7 +9994,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>15</v>
       </c>
@@ -9594,7 +10029,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>15</v>
       </c>
@@ -9629,7 +10064,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
@@ -9664,7 +10099,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>15</v>
       </c>
@@ -9699,7 +10134,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
@@ -9734,7 +10169,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
@@ -9769,7 +10204,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
@@ -9804,7 +10239,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
@@ -9845,7 +10280,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
@@ -9880,7 +10315,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
@@ -9915,7 +10350,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
@@ -9953,7 +10388,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
@@ -9985,7 +10420,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
@@ -10026,7 +10461,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
@@ -10061,7 +10496,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
@@ -10096,7 +10531,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
@@ -10134,7 +10569,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
@@ -10172,7 +10607,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
@@ -10207,7 +10642,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
@@ -10245,7 +10680,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
@@ -10286,7 +10721,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>16</v>
       </c>
@@ -10321,7 +10756,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
@@ -10356,7 +10791,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>16</v>
       </c>
@@ -10391,7 +10826,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>16</v>
       </c>
@@ -10426,7 +10861,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>16</v>
       </c>
@@ -10461,7 +10896,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>16</v>
       </c>
@@ -10496,7 +10931,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>16</v>
       </c>
@@ -10531,7 +10966,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
@@ -10572,7 +11007,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
@@ -10607,7 +11042,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
@@ -10642,7 +11077,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
@@ -10680,7 +11115,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
@@ -10715,7 +11150,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
@@ -10753,7 +11188,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
@@ -10788,7 +11223,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
@@ -10823,7 +11258,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
@@ -10858,7 +11293,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
@@ -10899,7 +11334,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
@@ -10934,7 +11369,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
@@ -10972,7 +11407,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
@@ -11007,7 +11442,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
@@ -11042,7 +11477,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>17</v>
       </c>
@@ -11083,7 +11518,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>17</v>
       </c>
@@ -11118,7 +11553,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>17</v>
       </c>
@@ -11153,7 +11588,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>17</v>
       </c>
@@ -11194,7 +11629,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>17</v>
       </c>
@@ -11229,7 +11664,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>17</v>
       </c>
@@ -11264,7 +11699,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>17</v>
       </c>
@@ -11302,7 +11737,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>17</v>
       </c>
@@ -11335,7 +11770,7 @@
       </c>
       <c r="O138" s="10"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>17</v>
       </c>
@@ -11373,7 +11808,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
@@ -11408,7 +11843,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
@@ -11443,7 +11878,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
@@ -11481,7 +11916,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
@@ -11516,7 +11951,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
@@ -11551,7 +11986,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
@@ -11586,7 +12021,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
@@ -11621,7 +12056,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
@@ -11659,7 +12094,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
@@ -11694,7 +12129,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
@@ -11729,7 +12164,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
@@ -11819,20 +12254,20 @@
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="62.7109375" customWidth="1"/>
-    <col min="4" max="4" width="75.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+    <col min="4" max="4" width="75.44140625" customWidth="1"/>
+    <col min="5" max="5" width="48.88671875" customWidth="1"/>
     <col min="6" max="6" width="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="88.42578125" customWidth="1"/>
-    <col min="15" max="15" width="69.42578125" customWidth="1"/>
+    <col min="7" max="7" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="88.44140625" customWidth="1"/>
+    <col min="15" max="15" width="69.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -11882,7 +12317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -11912,7 +12347,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -11942,7 +12377,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -11972,7 +12407,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -12002,7 +12437,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -12032,7 +12467,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -12065,7 +12500,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -12095,7 +12530,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -12125,7 +12560,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -12155,7 +12590,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -12185,7 +12620,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -12215,7 +12650,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -12245,7 +12680,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -12275,7 +12710,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -12305,7 +12740,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -12338,7 +12773,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -12368,7 +12803,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -12398,7 +12833,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -12428,7 +12863,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -12458,7 +12893,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -12491,7 +12926,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -12521,7 +12956,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
@@ -12551,7 +12986,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -12581,7 +13016,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -12611,7 +13046,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -12641,7 +13076,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
@@ -12671,7 +13106,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -12701,7 +13136,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -12731,7 +13166,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -12761,7 +13196,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -12791,7 +13226,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
@@ -12821,7 +13256,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>13</v>
       </c>
@@ -12851,7 +13286,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -12881,7 +13316,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
@@ -12914,7 +13349,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
@@ -12944,7 +13379,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>13</v>
       </c>
@@ -12974,7 +13409,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>13</v>
       </c>
@@ -13004,7 +13439,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>13</v>
       </c>
@@ -13034,7 +13469,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>13</v>
       </c>
@@ -13064,7 +13499,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>13</v>
       </c>
@@ -13094,7 +13529,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>13</v>
       </c>
@@ -13124,7 +13559,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>13</v>
       </c>
@@ -13154,7 +13589,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>13</v>
       </c>
@@ -13184,7 +13619,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>13</v>
       </c>
@@ -13214,7 +13649,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>13</v>
       </c>
@@ -13244,7 +13679,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>14</v>
       </c>
@@ -13274,7 +13709,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>14</v>
       </c>
@@ -13304,7 +13739,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>14</v>
       </c>
@@ -13334,7 +13769,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>14</v>
       </c>
@@ -13364,7 +13799,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>14</v>
       </c>
@@ -13394,7 +13829,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>14</v>
       </c>
@@ -13424,7 +13859,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>14</v>
       </c>
@@ -13457,7 +13892,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>14</v>
       </c>
@@ -13487,7 +13922,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>14</v>
       </c>
@@ -13517,7 +13952,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>14</v>
       </c>
@@ -13547,7 +13982,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>14</v>
       </c>
@@ -13577,7 +14012,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>14</v>
       </c>
@@ -13607,7 +14042,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>14</v>
       </c>
@@ -13637,7 +14072,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>14</v>
       </c>
@@ -13667,7 +14102,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>14</v>
       </c>
@@ -13697,7 +14132,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>15</v>
       </c>
@@ -13727,7 +14162,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>15</v>
       </c>
@@ -13757,7 +14192,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>15</v>
       </c>
@@ -13787,7 +14222,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>15</v>
       </c>
@@ -13820,7 +14255,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>15</v>
       </c>
@@ -13850,7 +14285,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
         <v>15</v>
       </c>
@@ -13880,7 +14315,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>15</v>
       </c>
@@ -13910,7 +14345,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>15</v>
       </c>
@@ -13940,7 +14375,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>15</v>
       </c>
@@ -13970,7 +14405,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
         <v>15</v>
       </c>
@@ -14000,7 +14435,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>15</v>
       </c>
@@ -14030,7 +14465,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>15</v>
       </c>
@@ -14060,7 +14495,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>15</v>
       </c>
@@ -14090,7 +14525,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>15</v>
       </c>
@@ -14120,7 +14555,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>15</v>
       </c>
@@ -14150,7 +14585,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>16</v>
       </c>
@@ -14180,7 +14615,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>16</v>
       </c>
@@ -14210,7 +14645,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>16</v>
       </c>
@@ -14240,7 +14675,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>16</v>
       </c>
@@ -14273,7 +14708,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>16</v>
       </c>
@@ -14303,7 +14738,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>16</v>
       </c>
@@ -14333,7 +14768,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>16</v>
       </c>
@@ -14366,7 +14801,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>16</v>
       </c>
@@ -14396,7 +14831,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>16</v>
       </c>
@@ -14426,7 +14861,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>16</v>
       </c>
@@ -14456,7 +14891,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>16</v>
       </c>
@@ -14486,7 +14921,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>16</v>
       </c>
@@ -14519,7 +14954,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>16</v>
       </c>
@@ -14549,7 +14984,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>16</v>
       </c>
@@ -14579,7 +15014,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>16</v>
       </c>
@@ -14612,7 +15047,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>17</v>
       </c>
@@ -14642,7 +15077,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>17</v>
       </c>
@@ -14672,7 +15107,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>17</v>
       </c>
@@ -14702,7 +15137,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>17</v>
       </c>
@@ -14732,7 +15167,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>17</v>
       </c>
@@ -14762,7 +15197,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>17</v>
       </c>
@@ -14795,7 +15230,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>17</v>
       </c>
@@ -14825,7 +15260,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>17</v>
       </c>
@@ -14855,7 +15290,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>17</v>
       </c>
@@ -14885,7 +15320,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>17</v>
       </c>
@@ -14915,7 +15350,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>17</v>
       </c>
@@ -14945,7 +15380,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>17</v>
       </c>
@@ -14975,7 +15410,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>17</v>
       </c>
@@ -15005,7 +15440,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>17</v>
       </c>
@@ -15035,7 +15470,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>17</v>
       </c>
@@ -15124,23 +15559,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E2B55B-907C-44E7-A92E-00A1BB478166}">
-  <dimension ref="A1:P150"/>
+  <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="107.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="107.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -15190,7 +15625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -15201,7 +15636,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E2" t="s">
         <v>184</v>
@@ -15213,19 +15648,19 @@
         <v>186</v>
       </c>
       <c r="I2" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="O2" t="s">
         <v>1246</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1247</v>
       </c>
       <c r="P2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -15236,7 +15671,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E3" t="s">
         <v>183</v>
@@ -15251,19 +15686,19 @@
         <v>186</v>
       </c>
       <c r="I3" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="O3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="P3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -15274,7 +15709,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E4" t="s">
         <v>185</v>
@@ -15283,19 +15718,19 @@
         <v>186</v>
       </c>
       <c r="I4" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="O4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="P4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -15306,7 +15741,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E5" t="s">
         <v>183</v>
@@ -15318,19 +15753,19 @@
         <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="O5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="P5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -15341,7 +15776,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E6" t="s">
         <v>184</v>
@@ -15350,19 +15785,19 @@
         <v>186</v>
       </c>
       <c r="I6" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="O6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="P6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -15373,7 +15808,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E7" t="s">
         <v>184</v>
@@ -15385,19 +15820,19 @@
         <v>186</v>
       </c>
       <c r="I7" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J7" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="O7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="P7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -15408,7 +15843,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E8" t="s">
         <v>185</v>
@@ -15417,19 +15852,19 @@
         <v>186</v>
       </c>
       <c r="I8" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O8" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="P8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -15440,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E9" t="s">
         <v>184</v>
@@ -15452,19 +15887,19 @@
         <v>186</v>
       </c>
       <c r="I9" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J9" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="O9" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="P9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -15475,7 +15910,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E10" t="s">
         <v>185</v>
@@ -15484,19 +15919,19 @@
         <v>186</v>
       </c>
       <c r="I10" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J10" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="O10" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="P10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -15507,7 +15942,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E11" t="s">
         <v>183</v>
@@ -15516,19 +15951,19 @@
         <v>186</v>
       </c>
       <c r="I11" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J11" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O11" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="P11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -15539,7 +15974,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E12" t="s">
         <v>184</v>
@@ -15548,19 +15983,19 @@
         <v>186</v>
       </c>
       <c r="I12" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J12" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="O12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="P12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -15571,7 +16006,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E13" t="s">
         <v>185</v>
@@ -15580,19 +16015,19 @@
         <v>186</v>
       </c>
       <c r="I13" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J13" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="O13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="P13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -15603,7 +16038,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E14" t="s">
         <v>184</v>
@@ -15612,19 +16047,19 @@
         <v>186</v>
       </c>
       <c r="I14" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J14" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="O14" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="P14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -15635,7 +16070,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E15" t="s">
         <v>182</v>
@@ -15644,19 +16079,19 @@
         <v>186</v>
       </c>
       <c r="I15" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J15" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="O15" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="P15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -15667,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E16" t="s">
         <v>185</v>
@@ -15679,19 +16114,19 @@
         <v>186</v>
       </c>
       <c r="I16" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J16" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="O16" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="P16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -15702,7 +16137,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E17" t="s">
         <v>184</v>
@@ -15714,19 +16149,19 @@
         <v>186</v>
       </c>
       <c r="I17" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J17" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O17" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="P17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -15737,7 +16172,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E18" t="s">
         <v>183</v>
@@ -15746,19 +16181,19 @@
         <v>186</v>
       </c>
       <c r="I18" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J18" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="O18" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="P18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -15769,7 +16204,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E19" t="s">
         <v>185</v>
@@ -15784,19 +16219,19 @@
         <v>186</v>
       </c>
       <c r="I19" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="O19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="P19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -15807,7 +16242,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E20" t="s">
         <v>185</v>
@@ -15816,19 +16251,19 @@
         <v>186</v>
       </c>
       <c r="I20" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J20" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="O20" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="P20" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -15839,7 +16274,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E21" t="s">
         <v>184</v>
@@ -15848,19 +16283,19 @@
         <v>186</v>
       </c>
       <c r="I21" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J21" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="O21" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="P21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -15871,7 +16306,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E22" t="s">
         <v>183</v>
@@ -15886,19 +16321,19 @@
         <v>186</v>
       </c>
       <c r="I22" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J22" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O22" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="P22" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -15909,7 +16344,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E23" t="s">
         <v>186</v>
@@ -15918,19 +16353,19 @@
         <v>186</v>
       </c>
       <c r="I23" t="s">
-        <v>1223</v>
+        <v>1337</v>
       </c>
       <c r="J23" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O23" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="P23" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -15941,7 +16376,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E24" t="s">
         <v>183</v>
@@ -15950,159 +16385,354 @@
         <v>186</v>
       </c>
       <c r="I24" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J24" t="s">
         <v>1223</v>
       </c>
-      <c r="J24" t="s">
-        <v>1224</v>
-      </c>
       <c r="O24" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="P24" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1314</v>
+      </c>
+      <c r="E25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1360</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1361</v>
+      </c>
+      <c r="P25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1315</v>
+      </c>
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1362</v>
+      </c>
+      <c r="P26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1316</v>
+      </c>
+      <c r="E27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1358</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1363</v>
+      </c>
+      <c r="P27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+      <c r="E28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1357</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1364</v>
+      </c>
+      <c r="P28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1318</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1356</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1365</v>
+      </c>
+      <c r="P29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" t="s">
+        <v>187</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1355</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1366</v>
+      </c>
+      <c r="P30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1320</v>
+      </c>
+      <c r="E31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" t="s">
+        <v>187</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1367</v>
+      </c>
+      <c r="P31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+      <c r="E32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1353</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1368</v>
+      </c>
+      <c r="P32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+      <c r="E33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1004</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1369</v>
+      </c>
+      <c r="P33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1323</v>
+      </c>
+      <c r="E34" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" t="s">
+        <v>187</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1352</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1370</v>
+      </c>
+      <c r="P34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -16113,773 +16743,1710 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+      <c r="E35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1351</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1371</v>
+      </c>
+      <c r="P35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+      <c r="E36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" t="s">
+        <v>187</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1350</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1372</v>
+      </c>
+      <c r="P36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+      <c r="E37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1349</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1373</v>
+      </c>
+      <c r="P37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1327</v>
+      </c>
+      <c r="E38" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" t="s">
+        <v>187</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1348</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1374</v>
+      </c>
+      <c r="P38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1328</v>
+      </c>
+      <c r="E39" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39" t="s">
+        <v>187</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1375</v>
+      </c>
+      <c r="P39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1329</v>
+      </c>
+      <c r="E40" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1346</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1376</v>
+      </c>
+      <c r="P40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E41" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" t="s">
+        <v>187</v>
+      </c>
+      <c r="H41" t="s">
+        <v>187</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1345</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" t="s">
+        <v>187</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1344</v>
+      </c>
+      <c r="O42" t="s">
+        <v>1378</v>
+      </c>
+      <c r="P42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E43" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" t="s">
+        <v>187</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1343</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1379</v>
+      </c>
+      <c r="P43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1342</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1380</v>
+      </c>
+      <c r="P44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E45" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" t="s">
+        <v>187</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1341</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1381</v>
+      </c>
+      <c r="P45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E46" t="s">
+        <v>185</v>
+      </c>
+      <c r="F46" t="s">
+        <v>187</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1340</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1382</v>
+      </c>
+      <c r="P46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E47" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" t="s">
+        <v>187</v>
+      </c>
+      <c r="G47" t="s">
+        <v>187</v>
+      </c>
+      <c r="H47" t="s">
+        <v>187</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1383</v>
+      </c>
+      <c r="P47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E48" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" t="s">
+        <v>188</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1452</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1453</v>
+      </c>
+      <c r="P48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E49" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" t="s">
+        <v>188</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1451</v>
+      </c>
+      <c r="O49" t="s">
+        <v>1454</v>
+      </c>
+      <c r="P49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E50" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" t="s">
+        <v>188</v>
+      </c>
+      <c r="G50" t="s">
+        <v>188</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1450</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1455</v>
+      </c>
+      <c r="P50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E51" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" t="s">
+        <v>188</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1449</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1456</v>
+      </c>
+      <c r="P51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" t="s">
+        <v>188</v>
+      </c>
+      <c r="H52" t="s">
+        <v>188</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1448</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1457</v>
+      </c>
+      <c r="P52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E53" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" t="s">
+        <v>188</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1447</v>
+      </c>
+      <c r="O53" t="s">
+        <v>1458</v>
+      </c>
+      <c r="P53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E54" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" t="s">
+        <v>188</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1446</v>
+      </c>
+      <c r="O54" t="s">
+        <v>1459</v>
+      </c>
+      <c r="P54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E55" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" t="s">
+        <v>188</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1445</v>
+      </c>
+      <c r="O55" t="s">
+        <v>1460</v>
+      </c>
+      <c r="P55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E56" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" t="s">
+        <v>188</v>
+      </c>
+      <c r="G56" t="s">
+        <v>188</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1444</v>
+      </c>
+      <c r="O56" t="s">
+        <v>1461</v>
+      </c>
+      <c r="P56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E57" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" t="s">
+        <v>188</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1443</v>
+      </c>
+      <c r="O57" t="s">
+        <v>1462</v>
+      </c>
+      <c r="P57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E58" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" t="s">
+        <v>188</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1442</v>
+      </c>
+      <c r="O58" t="s">
+        <v>1463</v>
+      </c>
+      <c r="P58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E59" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H59" t="s">
+        <v>188</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O59" t="s">
+        <v>1464</v>
+      </c>
+      <c r="P59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" t="s">
+        <v>188</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O60" t="s">
+        <v>1465</v>
+      </c>
+      <c r="P60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E61" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61" t="s">
+        <v>188</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O61" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E62" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" t="s">
+        <v>188</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O62" t="s">
+        <v>1467</v>
+      </c>
+      <c r="P62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" t="s">
+        <v>188</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1437</v>
+      </c>
+      <c r="O63" t="s">
+        <v>1468</v>
+      </c>
+      <c r="P63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E64" t="s">
+        <v>182</v>
+      </c>
+      <c r="F64" t="s">
+        <v>188</v>
+      </c>
+      <c r="G64" t="s">
+        <v>188</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O64" t="s">
+        <v>1469</v>
+      </c>
+      <c r="P64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E65" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" t="s">
+        <v>188</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1435</v>
+      </c>
+      <c r="O65" t="s">
+        <v>1470</v>
+      </c>
+      <c r="P65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F66" t="s">
+        <v>188</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1434</v>
+      </c>
+      <c r="O66" t="s">
+        <v>1471</v>
+      </c>
+      <c r="P66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E67" t="s">
+        <v>184</v>
+      </c>
+      <c r="F67" t="s">
+        <v>188</v>
+      </c>
+      <c r="G67" t="s">
+        <v>188</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1433</v>
+      </c>
+      <c r="O67" t="s">
+        <v>1472</v>
+      </c>
+      <c r="P67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E68" t="s">
+        <v>185</v>
+      </c>
+      <c r="F68" t="s">
+        <v>188</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1432</v>
+      </c>
+      <c r="O68" t="s">
+        <v>1473</v>
+      </c>
+      <c r="P68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" t="s">
+        <v>188</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1430</v>
+      </c>
+      <c r="O69" t="s">
+        <v>1474</v>
+      </c>
+      <c r="P69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E70" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70" t="s">
+        <v>188</v>
+      </c>
+      <c r="G70" t="s">
+        <v>188</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1429</v>
+      </c>
+      <c r="O70" t="s">
+        <v>1475</v>
+      </c>
+      <c r="P70" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>15</v>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>15</v>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>15</v>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>16</v>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>16</v>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>16</v>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>17</v>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
-        <v>17</v>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>17</v>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16890,25 +18457,25 @@
           <x14:formula1>
             <xm:f>Dropdown!$A$35:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P150</xm:sqref>
+          <xm:sqref>P2:P153</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F10C9F24-F575-4BD2-8F2F-A6B57C82ED89}">
           <x14:formula1>
             <xm:f>Dropdown!$A$25:$A$32</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:N150</xm:sqref>
+          <xm:sqref>M2:N153</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{565C0D2B-EA0D-4467-B79C-3ADECD5A39AE}">
           <x14:formula1>
             <xm:f>Dropdown!$A$13:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:H150</xm:sqref>
+          <xm:sqref>E2:H153</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Frame" prompt="Select Frame" xr:uid="{3D5EB0A3-FDC5-4CF6-A091-B1EF72732FCB}">
           <x14:formula1>
             <xm:f>Dropdown!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C150</xm:sqref>
+          <xm:sqref>C2:C153</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16924,12 +18491,12 @@
       <selection sqref="A1:P150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -16979,895 +18546,895 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
@@ -17916,9 +19483,9 @@
       <selection sqref="A1:P150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -17968,895 +19535,895 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
@@ -18905,222 +20472,222 @@
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" customWidth="1"/>
+    <col min="1" max="1" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>1196</v>
       </c>

--- a/NetRealmsNanSetup/nanDECK/cards2.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Twizt\OneDrive\Desktop\Github\NetRealm-XGCTCG\NetRealmsNanSetup\nanDECK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E886B-2B3D-4FEE-8995-46EB481A85FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9786E19D-BAD6-4E9B-9E93-F4A921630392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="4" xr2:uid="{B6057150-7C73-433A-9315-C43DECCCCE72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{B6057150-7C73-433A-9315-C43DECCCCE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="1747">
   <si>
     <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_commonr.png</t>
   </si>
@@ -4471,6 +4471,819 @@
   </si>
   <si>
     <t>A relentless loop, judging and erasing.</t>
+  </si>
+  <si>
+    <t>Pixelated Realms</t>
+  </si>
+  <si>
+    <t>Glitchworld Arena</t>
+  </si>
+  <si>
+    <t>Respawn Protocol</t>
+  </si>
+  <si>
+    <t>Achievement Unlocked</t>
+  </si>
+  <si>
+    <t>Arcade Revival</t>
+  </si>
+  <si>
+    <t>Boss Battle Prelude</t>
+  </si>
+  <si>
+    <t>Game Over Reset</t>
+  </si>
+  <si>
+    <t>Extra Life</t>
+  </si>
+  <si>
+    <t>Digital Avatar Bond</t>
+  </si>
+  <si>
+    <t>High Score Pursuit</t>
+  </si>
+  <si>
+    <t>E-Sports Arena</t>
+  </si>
+  <si>
+    <t>Speedrun Momentum</t>
+  </si>
+  <si>
+    <t>Final Boss Call</t>
+  </si>
+  <si>
+    <t>Glowing Loot Chest</t>
+  </si>
+  <si>
+    <t>Power-Up Infusion</t>
+  </si>
+  <si>
+    <t>Pixel Storm</t>
+  </si>
+  <si>
+    <t>Checkpoint Save</t>
+  </si>
+  <si>
+    <t>Lag Shield</t>
+  </si>
+  <si>
+    <t>Arcade Cabinet Nexus</t>
+  </si>
+  <si>
+    <t>Health Bar Overflow</t>
+  </si>
+  <si>
+    <t>Controller’s Grip</t>
+  </si>
+  <si>
+    <t>Retro Revival</t>
+  </si>
+  <si>
+    <t>Final Victory Banner</t>
+  </si>
+  <si>
+    <t>Game Program</t>
+  </si>
+  <si>
+    <t>Units you control gain +1/+1 for each Gaming Energy you control. When Final Victory Banner leaves the Grid, exile all Units on the Grid.</t>
+  </si>
+  <si>
+    <t>When Retro Revival enters the Grid, create a 3/3 Retro Warrior token with “When this Unit attacks, exile target artifact.”</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, you may gain control of target tapped Unit until end of turn.</t>
+  </si>
+  <si>
+    <t>Enchanted Unit gains +2/+2 and “Whenever this Unit deals combat damage to a player, you gain that much Integrity.”</t>
+  </si>
+  <si>
+    <t>At the beginning of your end step, draw a card if you spent Gaming Energy this turn.</t>
+  </si>
+  <si>
+    <t>Enchanted Unit gains Hexproof. If an opponent targets enchanted Unit with a spell, counter that spell unless they pay 2 Integrity.</t>
+  </si>
+  <si>
+    <t>When Checkpoint Save enters the Grid, choose a Unit. If that Unit dies, return it to the Grid under your control with a +1/+1 counter on it.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, create a 2/2 Pixel Elemental Unit token. Pixel Elementals you control have “This Unit can’t be blocked except by two or more Units.”</t>
+  </si>
+  <si>
+    <t>Enchanted Unit gains +3/+3 and "If this Unit would leave the Grid, return it to its owner’s hand instead."</t>
+  </si>
+  <si>
+    <t>At the beginning of your end step, if a Unit you control dealt damage to an opponent this turn, create a Treasure token.</t>
+  </si>
+  <si>
+    <t>At the beginning of your combat step, target Unit you control gains “Double Strike” and “Trample” until end of turn.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, draw a card if you have cast three or more spells this turn.</t>
+  </si>
+  <si>
+    <t>At the beginning of your combat step, choose one: give a Unit you control +2/+2, or tap an opponent’s Unit.</t>
+  </si>
+  <si>
+    <t>Whenever you deal damage to a player, scry 1 and gain 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Units you control gain "Tap: Add one Gaming Energy."</t>
+  </si>
+  <si>
+    <t>If a Unit you control would die, exile it instead. Return it to the Grid at the beginning of your next end step with an additional +1/+1 counter.</t>
+  </si>
+  <si>
+    <t>When Game Over Reset enters the Grid, shuffle all Units into their owners' libraries. Each player may draw a card.</t>
+  </si>
+  <si>
+    <t>At the beginning of your combat step, choose an opponent’s Unit. That Unit cannot block this turn and loses all abilities until the end of the turn.</t>
+  </si>
+  <si>
+    <t>At the beginning of your end step, create a 1/1 Pixel Warrior token with "This Unit gains +1/+0 for each Gaming Energy you control."</t>
+  </si>
+  <si>
+    <t>When Achievement Unlocked enters the Grid, choose a permanent type. Double all triggers from that type.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit you control dies, return it to your hand at the beginning of your next end step.</t>
+  </si>
+  <si>
+    <t>When Glitchworld Arena enters the Grid, exile all Units on the Grid. At the beginning of your upkeep, return a Unit from exile under its owner’s control.</t>
+  </si>
+  <si>
+    <t>Units you control gain +1/+1 for each Gaming Energy you control. Whenever a Gaming Energy is spent, draw a card.</t>
+  </si>
+  <si>
+    <t>In the realm of pixels, every adventure begins anew.</t>
+  </si>
+  <si>
+    <t>Battle amidst the errors—only the strongest will respawn.</t>
+  </si>
+  <si>
+    <t>Death is just a checkpoint to victory.</t>
+  </si>
+  <si>
+    <t>One victory down, a lifetime of rewards to go.</t>
+  </si>
+  <si>
+    <t>Insert coin to begin the battle.</t>
+  </si>
+  <si>
+    <t>Prepare your power-ups—this fight will test your limits.</t>
+  </si>
+  <si>
+    <t>The end is just the beginning.</t>
+  </si>
+  <si>
+    <t>One more chance to win it all.</t>
+  </si>
+  <si>
+    <t>Your character, your rules.</t>
+  </si>
+  <si>
+    <t>Each hit brings you closer to the top.</t>
+  </si>
+  <si>
+    <t>The crowd roars for the ultimate champion.</t>
+  </si>
+  <si>
+    <t>No glitches, only precision.</t>
+  </si>
+  <si>
+    <t>The ultimate showdown begins.</t>
+  </si>
+  <si>
+    <t>Victory comes with its rewards.</t>
+  </si>
+  <si>
+    <t>With every level gained, strength follows.</t>
+  </si>
+  <si>
+    <t>A cascade of pixels to overwhelm the competition.</t>
+  </si>
+  <si>
+    <t>Every step forward is a step worth remembering.</t>
+  </si>
+  <si>
+    <t>Lag—it’s the ultimate defense mechanism.</t>
+  </si>
+  <si>
+    <t>A thousand worlds await beyond the screen.</t>
+  </si>
+  <si>
+    <t>Sometimes, all you need is a boost to outlast the opponent.</t>
+  </si>
+  <si>
+    <t>In the hands of a skilled player, even foes become allies.</t>
+  </si>
+  <si>
+    <t>Old-school tactics never go out of style.</t>
+  </si>
+  <si>
+    <t>Raise the flag of triumph—it’s game over for your foes.</t>
+  </si>
+  <si>
+    <t>Bugged Backup</t>
+  </si>
+  <si>
+    <t>Code Jam</t>
+  </si>
+  <si>
+    <t>Corrupted Cache</t>
+  </si>
+  <si>
+    <t>Crash Sequence</t>
+  </si>
+  <si>
+    <t>Data Corruption</t>
+  </si>
+  <si>
+    <t>Error Cascade</t>
+  </si>
+  <si>
+    <t>Error Overflow</t>
+  </si>
+  <si>
+    <t>Fatal Loop</t>
+  </si>
+  <si>
+    <t>Fragmented Reality</t>
+  </si>
+  <si>
+    <t>Frozen Program</t>
+  </si>
+  <si>
+    <t>Glitch Storm</t>
+  </si>
+  <si>
+    <t>Looping Malfunction</t>
+  </si>
+  <si>
+    <t>Memory Leak</t>
+  </si>
+  <si>
+    <t>Phantom Process</t>
+  </si>
+  <si>
+    <t>Program Breaker</t>
+  </si>
+  <si>
+    <t>System Failure</t>
+  </si>
+  <si>
+    <t>Flickering Protocol</t>
+  </si>
+  <si>
+    <t>Scrambled Logic</t>
+  </si>
+  <si>
+    <t>Digital Disturbance</t>
+  </si>
+  <si>
+    <t>Instability Field</t>
+  </si>
+  <si>
+    <t>Terminal Corruption</t>
+  </si>
+  <si>
+    <t>Error Loop</t>
+  </si>
+  <si>
+    <t>Ghost in the Protocol</t>
+  </si>
+  <si>
+    <t>Restoration doesn't always work as intended.</t>
+  </si>
+  <si>
+    <t>Collisions in the code leave everything stuck in place.</t>
+  </si>
+  <si>
+    <t>You never know what you’ll find in a corrupted system.</t>
+  </si>
+  <si>
+    <t>One error spirals into chaos.</t>
+  </si>
+  <si>
+    <t>When the data is tainted, so is the outcome.</t>
+  </si>
+  <si>
+    <t>One glitch leads to another.</t>
+  </si>
+  <si>
+    <t>The system can’t handle this much input.</t>
+  </si>
+  <si>
+    <t>An infinite cycle, forever flawed.</t>
+  </si>
+  <si>
+    <t>Reality itself shatters and reforms, each time more unstable.</t>
+  </si>
+  <si>
+    <t>A program stuck in limbo becomes a liability.”</t>
+  </si>
+  <si>
+    <t>The storm spares no system—it rips through archives like paper.</t>
+  </si>
+  <si>
+    <t>Sometimes the same error is the only solution.</t>
+  </si>
+  <si>
+    <t>What’s lost in the system often becomes yours to claim.</t>
+  </si>
+  <si>
+    <t>Phantom processes consume resources without producing results.</t>
+  </si>
+  <si>
+    <t>The quickest way to fix a bug is to smash the entire system.</t>
+  </si>
+  <si>
+    <t>When the system collapses, nothing escapes.</t>
+  </si>
+  <si>
+    <t>Sometimes, turning it off and on again is the only answer.</t>
+  </si>
+  <si>
+    <t>Good luck finding clarity in the chaos.</t>
+  </si>
+  <si>
+    <t>Each glitch ripples through the system, revealing more than intended.</t>
+  </si>
+  <si>
+    <t>No code is safe within the field.</t>
+  </si>
+  <si>
+    <t>Corruption magnifies everything—both brilliance and destruction.</t>
+  </si>
+  <si>
+    <t>An error that feeds itself becomes a perpetual problem.</t>
+  </si>
+  <si>
+    <t>When a program dies, sometimes its ghost lingers.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit you control dies, you may exile it. If you do, create a token that's a copy of that Unit except it’s 1/1 and has “Glitch Energy: Exile this token at the beginning of your next end step.”</t>
+  </si>
+  <si>
+    <t>Units can't attack or block as long as they share a name with another Unit on the Grid.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, exile the top card of your archive. If it’s a Unit card, you may put it into your hand.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit dies, destroy all Programs attached to it.</t>
+  </si>
+  <si>
+    <t>At the beginning of each player's upkeep, they discard a card at random, then draw a card.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent casts a spell, they must discard a card.</t>
+  </si>
+  <si>
+    <t>Whenever you scry, exile the top card of your archive. You may cast it until the end of turn.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, you may return a Program card from your archive to the Grid.</t>
+  </si>
+  <si>
+    <t>Exile all Units, then return them to the Grid at the beginning of the next end step.</t>
+  </si>
+  <si>
+    <t>Tap: Target Unit doesn’t untap during its controller’s next untap step.</t>
+  </si>
+  <si>
+    <t>Whenever a player casts a spell, exile the top card of their archive. You may play those cards until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>At the beginning of your end step, you may return a Unit from your archive to the Grid. It gains “Glitch Energy: Sacrifice this Unit at the beginning of your next upkeep.”</t>
+  </si>
+  <si>
+    <t>Whenever an opponent draws a card, you may exile the top card of their archive.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, create a 1/1 Glitch Token with “Glitch Energy: Exile this token at the beginning of the next end step.”</t>
+  </si>
+  <si>
+    <t>Whenever a Unit enters the Grid, destroy all Programs attached to it.</t>
+  </si>
+  <si>
+    <t>When System Failure enters the Grid, destroy all other Programs. Then exile all Unit cards from all archives.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, exile target Program. Return it to the Grid under its owner's control at the beginning of your next upkeep.</t>
+  </si>
+  <si>
+    <t>Units cannot block unless their controller pays 2 Glitch Energy for each blocking Unit.</t>
+  </si>
+  <si>
+    <t>Whenever a player activates an ability of a Program, you may scry 1.</t>
+  </si>
+  <si>
+    <t>All Units gain “Glitch Energy: At the beginning of your upkeep, flip a coin. If you lose the flip, sacrifice this Unit.”</t>
+  </si>
+  <si>
+    <t>Whenever a Program enters the Grid under your control, double its effects.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, return target Program card from your discard pile to the Grid. If that card would leave the Grid, exile it instead.</t>
+  </si>
+  <si>
+    <t>Whenever a Program is exiled, create a 1/1 Glitch Spirit token with “Glitch Energy: Sacrifice this token to add one Glitch Energy to your pool.”</t>
+  </si>
+  <si>
+    <t>Glitch Program</t>
+  </si>
+  <si>
+    <t>Cat Lord's Blessing</t>
+  </si>
+  <si>
+    <t>Big Chungus Ascends</t>
+  </si>
+  <si>
+    <t>This Is Fine</t>
+  </si>
+  <si>
+    <t>Dancing Coffin Parade</t>
+  </si>
+  <si>
+    <t>Distracted Partner</t>
+  </si>
+  <si>
+    <t>Forever Alone</t>
+  </si>
+  <si>
+    <t>Pepe's Redemption</t>
+  </si>
+  <si>
+    <t>Doomer's Anthem</t>
+  </si>
+  <si>
+    <t>Explorer’s Legacy</t>
+  </si>
+  <si>
+    <t>We Live in a Society</t>
+  </si>
+  <si>
+    <t>“No U” Counterspell</t>
+  </si>
+  <si>
+    <t>Keyboard Warrior’s Resilience</t>
+  </si>
+  <si>
+    <t>Rickroll Redirect</t>
+  </si>
+  <si>
+    <t>Swamp of Solace</t>
+  </si>
+  <si>
+    <t>Doge's Prosperity</t>
+  </si>
+  <si>
+    <t>Troll Bridge</t>
+  </si>
+  <si>
+    <t>Impostor Among Us</t>
+  </si>
+  <si>
+    <t>Meme Overload</t>
+  </si>
+  <si>
+    <t>Social Media Amplifier</t>
+  </si>
+  <si>
+    <t>Meme Archive</t>
+  </si>
+  <si>
+    <t>Reaction Reel</t>
+  </si>
+  <si>
+    <t>Infinite Scrolling</t>
+  </si>
+  <si>
+    <t>Units you control have +1/+1 as long as they are Cats.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit you control deals damage to an opponent, draw a card.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, you lose 1 Integrity. If you have 5 or less Integrity, all Units you control gain indestructible.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit dies, create a 1/1 Dancing Bear token with “Tap: Add one Meme Energy.”</t>
+  </si>
+  <si>
+    <t>When Distracted Partner enters the Grid, target Unit an opponent controls loses all abilities until your next turn.</t>
+  </si>
+  <si>
+    <t>When Mocking Parrot enters the Grid, choose a keyword ability an opponent’s Unit has. All Units you control gain that ability until end of turn.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, if you control no other Units, gain 2 Integrity.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, double the amount of Meme Energy in your energy pool.</t>
+  </si>
+  <si>
+    <t>Units you control get +2/+1. At the beginning of your end step, sacrifice a Unit.</t>
+  </si>
+  <si>
+    <t>Whenever a player loses Integrity, you gain 1 Integrity.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent targets you or a Unit you control, copy that ability and target them instead.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit you control is dealt damage, you may pay 1M. If you do, deal that much damage to any target.</t>
+  </si>
+  <si>
+    <t>Whenever a player searches their deck, you may force them to shuffle it instead.</t>
+  </si>
+  <si>
+    <t>At the beginning of your end step, if you control no Units, create a 3/3 green Ogre Unit token with trample.</t>
+  </si>
+  <si>
+    <t>Add 2 Meme Energy to your pool whenever you cast a Program.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent draws a card, they lose 1 Integrity unless they pay 1.</t>
+  </si>
+  <si>
+    <t>When Impostor Among Us enters the Grid, choose a Unit an opponent controls. It becomes a copy of that Unit until your next turn.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, create a 1/1 Token for each Meme Energy you control. Tokens are 1/1 Meme Creatures with “Sacrifice: Add one Meme Energy.”</t>
+  </si>
+  <si>
+    <t>Whenever you cast a Unit, double its attack and defense until end of turn.</t>
+  </si>
+  <si>
+    <t>You may cast Unit cards from your discard pile by paying 1 extra Meme Energy.</t>
+  </si>
+  <si>
+    <t>Whenever an opponent casts a Program, you may create a 2/2 Reaction Unit Token with “This creature gains +1/+0 for each Program cast this turn.”</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, reveal the top card of your deck. If it’s a Unit or Program, you may cast it without paying its energy cost. Otherwise, place it at the bottom of your deck.</t>
+  </si>
+  <si>
+    <t>The internet bows to its true rulers—felines.</t>
+  </si>
+  <si>
+    <t>He thicc, he wise, he unstoppable.</t>
+  </si>
+  <si>
+    <t>As the flames rise, serenity prevails.</t>
+  </si>
+  <si>
+    <t>Rest in power, carried to the beat of Meme history.</t>
+  </si>
+  <si>
+    <t>Eyes always wander toward the newer thing.</t>
+  </si>
+  <si>
+    <t>Repeat, amplify, conquer.</t>
+  </si>
+  <si>
+    <t>Loneliness is temporary; memes are eternal.</t>
+  </si>
+  <si>
+    <t>The internet evolves, and so do its symbols.</t>
+  </si>
+  <si>
+    <t>The struggle is real, but the memes persist.</t>
+  </si>
+  <si>
+    <t>Slow but unforgettable.</t>
+  </si>
+  <si>
+    <t>Civilization is a meme in itself.</t>
+  </si>
+  <si>
+    <t>The ultimate clapback.</t>
+  </si>
+  <si>
+    <t>A battle fought from behind a glowing screen.</t>
+  </si>
+  <si>
+    <t>Never gonna let you finish...</t>
+  </si>
+  <si>
+    <t>What are you doing in my swamp?</t>
+  </si>
+  <si>
+    <t>Such wealth. Much power. Wow.</t>
+  </si>
+  <si>
+    <t>Pay the toll, or face the troll.</t>
+  </si>
+  <si>
+    <t>Sus until proven otherwise.</t>
+  </si>
+  <si>
+    <t>When memes collide, chaos thrives.</t>
+  </si>
+  <si>
+    <t>With the right platform, anyone can go viral.</t>
+  </si>
+  <si>
+    <t>Memes never die—they’re just reposted.</t>
+  </si>
+  <si>
+    <t>Their action fuels your reaction.</t>
+  </si>
+  <si>
+    <t>The scroll never ends, just like the content.</t>
+  </si>
+  <si>
+    <t>Meme Program</t>
+  </si>
+  <si>
+    <t>Silver Screen Reverie</t>
+  </si>
+  <si>
+    <t>Starlight Montage</t>
+  </si>
+  <si>
+    <t>Director’s Cut</t>
+  </si>
+  <si>
+    <t>Cinematic Panorama</t>
+  </si>
+  <si>
+    <t>Screenwriter’s Quill</t>
+  </si>
+  <si>
+    <t>Epic Showdown</t>
+  </si>
+  <si>
+    <t>Box Office Bloom</t>
+  </si>
+  <si>
+    <t>Climactic Crescendo</t>
+  </si>
+  <si>
+    <t>Projectionist’s Domain</t>
+  </si>
+  <si>
+    <t>Popcorn Utopia</t>
+  </si>
+  <si>
+    <t>Rising Tension</t>
+  </si>
+  <si>
+    <t>Fade to Black</t>
+  </si>
+  <si>
+    <t>Behind the Curtains</t>
+  </si>
+  <si>
+    <t>Encore Effect</t>
+  </si>
+  <si>
+    <t>Film Noir Shadows</t>
+  </si>
+  <si>
+    <t>Blockbuster Boom</t>
+  </si>
+  <si>
+    <t>Critic’s Curse</t>
+  </si>
+  <si>
+    <t>Script Rewrite</t>
+  </si>
+  <si>
+    <t>Marquee Madness</t>
+  </si>
+  <si>
+    <t>Cinema Loop</t>
+  </si>
+  <si>
+    <t>Premiere Night</t>
+  </si>
+  <si>
+    <t>Movie Program</t>
+  </si>
+  <si>
+    <t>The lights dim, the magic begins.</t>
+  </si>
+  <si>
+    <t>A story worth telling is a story worth repeating.</t>
+  </si>
+  <si>
+    <t>Names in lights, actions in shadows.</t>
+  </si>
+  <si>
+    <t>Change the plot, change the fate.</t>
+  </si>
+  <si>
+    <t>One bad review can topple an empire.</t>
+  </si>
+  <si>
+    <t>Bigger, louder, unforgettable.</t>
+  </si>
+  <si>
+    <t>In the darkest tales, even the smallest light can be blinding.</t>
+  </si>
+  <si>
+    <t>The curtain call is only the beginning.</t>
+  </si>
+  <si>
+    <t>Every masterpiece hides a secret.</t>
+  </si>
+  <si>
+    <t>Every story ends, but not every character is forgotten.</t>
+  </si>
+  <si>
+    <t>As the story builds, so does the pressure.</t>
+  </si>
+  <si>
+    <t>Every story needs an audience.</t>
+  </si>
+  <si>
+    <t>What’s real is what you choose to believe.</t>
+  </si>
+  <si>
+    <t>The story's climax rewrites the rules.</t>
+  </si>
+  <si>
+    <t>Popularity comes at a cost.</t>
+  </si>
+  <si>
+    <t>The final battle leaves no audience unmoved.</t>
+  </si>
+  <si>
+    <t>Every character deserves their arc.</t>
+  </si>
+  <si>
+    <t>The world is a set; every prop holds a story.</t>
+  </si>
+  <si>
+    <t>Sometimes, the story needs rewriting.</t>
+  </si>
+  <si>
+    <t>A thousand scenes, a single unforgettable story.</t>
+  </si>
+  <si>
+    <t>In the glow of the silver screen, imagination becomes reality.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, draw a card if you control at least three Relics.</t>
+  </si>
+  <si>
+    <t>Whenever you cast a Program, put a +1/+1 counter on target Unit.</t>
+  </si>
+  <si>
+    <t>When Director’s Cut enters the Grid, exile up to three Units. Return them to the Grid at the beginning of your next upkeep under your control.</t>
+  </si>
+  <si>
+    <t>Whenever a Relic enters the Grid under your control, draw a card.</t>
+  </si>
+  <si>
+    <t>Whenever you cast a Unit, you may return a Program from your archive to your hand.</t>
+  </si>
+  <si>
+    <t>Units you control gain +2/+2 and trample until end of turn.</t>
+  </si>
+  <si>
+    <t>When Climactic Crescendo enters the Grid, destroy all other enchantments. For each one destroyed, create a 2/2 “Illusion” Unit token.</t>
+  </si>
+  <si>
+    <t>Units you control have "Pay 1 Integrity: This Unit gains indestructible until end of turn."</t>
+  </si>
+  <si>
+    <t>At the beginning of each player's upkeep, that player creates a 1/1 "Audience Member" Unit token with "This Unit cannot attack or block."</t>
+  </si>
+  <si>
+    <t>Units you control gain +1/+1. Opponents' Units get -1/-1.</t>
+  </si>
+  <si>
+    <t>Exile target Unit until Fade to Black leaves the Grid.</t>
+  </si>
+  <si>
+    <t>Look at the top three cards of your Grid. You may reveal a Unit or Relic card and put it into your hand. Put the rest on the bottom of your archive.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit enters the Grid under your control, you may return a Unit from your discard to your hand.</t>
+  </si>
+  <si>
+    <t>Target Unit gains deathtouch and “Whenever this Unit deals damage to a player, draw a card” until end of turn.</t>
+  </si>
+  <si>
+    <t>When Blockbuster Boom enters the Grid, destroy all Relics. For each Relic destroyed, create a 4/4 "Epic Spectacle" Unit token.</t>
+  </si>
+  <si>
+    <t>At the beginning of each player’s upkeep, they lose 2 Integrity unless they sacrifice a Relic.</t>
+  </si>
+  <si>
+    <t>Exile target Unit. Its controller may play a Unit from their hand without paying its cost.</t>
+  </si>
+  <si>
+    <t>Whenever a Unit attacks, its controller may pay 2. If they do, that Unit gains +3/+0 until end of turn.</t>
+  </si>
+  <si>
+    <t>At the beginning of your upkeep, you may return target Program from your discard to your hand.</t>
+  </si>
+  <si>
+    <t>When Premiere Night enters the Grid, draw three cards. You may reveal a Relic from among them and play it without paying its cost.</t>
   </si>
 </sst>
 </file>
@@ -15559,10 +16372,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E2B55B-907C-44E7-A92E-00A1BB478166}">
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" topLeftCell="J107" workbookViewId="0">
+      <selection activeCell="J160" sqref="J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17954,499 +18767,2269 @@
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>185</v>
+      </c>
+      <c r="F71" t="s">
+        <v>189</v>
+      </c>
+      <c r="G71" t="s">
+        <v>189</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1522</v>
+      </c>
+      <c r="O71" t="s">
+        <v>1523</v>
+      </c>
+      <c r="P71" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" t="s">
+        <v>189</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1521</v>
+      </c>
+      <c r="O72" t="s">
+        <v>1524</v>
+      </c>
+      <c r="P72" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>189</v>
+      </c>
+      <c r="F73" t="s">
+        <v>189</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O73" t="s">
+        <v>1525</v>
+      </c>
+      <c r="P73" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>182</v>
+      </c>
+      <c r="F74" t="s">
+        <v>189</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1519</v>
+      </c>
+      <c r="O74" t="s">
+        <v>1526</v>
+      </c>
+      <c r="P74" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>184</v>
+      </c>
+      <c r="F75" t="s">
+        <v>189</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1518</v>
+      </c>
+      <c r="O75" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P75" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" t="s">
+        <v>189</v>
+      </c>
+      <c r="G76" t="s">
+        <v>189</v>
+      </c>
+      <c r="H76" t="s">
+        <v>189</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1517</v>
+      </c>
+      <c r="O76" t="s">
+        <v>1528</v>
+      </c>
+      <c r="P76" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>183</v>
+      </c>
+      <c r="F77" t="s">
+        <v>189</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1516</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1529</v>
+      </c>
+      <c r="P77" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78" t="s">
+        <v>189</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1515</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1530</v>
+      </c>
+      <c r="P78" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>184</v>
+      </c>
+      <c r="F79" t="s">
+        <v>189</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1514</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1531</v>
+      </c>
+      <c r="P79" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" t="s">
+        <v>189</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1513</v>
+      </c>
+      <c r="O80" t="s">
+        <v>1532</v>
+      </c>
+      <c r="P80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>184</v>
+      </c>
+      <c r="F81" t="s">
+        <v>189</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1512</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1533</v>
+      </c>
+      <c r="P81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>185</v>
+      </c>
+      <c r="F82" t="s">
+        <v>189</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1511</v>
+      </c>
+      <c r="O82" t="s">
+        <v>1534</v>
+      </c>
+      <c r="P82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>183</v>
+      </c>
+      <c r="F83" t="s">
+        <v>189</v>
+      </c>
+      <c r="G83" t="s">
+        <v>189</v>
+      </c>
+      <c r="H83" t="s">
+        <v>189</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1510</v>
+      </c>
+      <c r="O83" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P83" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>182</v>
+      </c>
+      <c r="F84" t="s">
+        <v>189</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1509</v>
+      </c>
+      <c r="O84" t="s">
+        <v>1536</v>
+      </c>
+      <c r="P84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>185</v>
+      </c>
+      <c r="F85" t="s">
+        <v>189</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1508</v>
+      </c>
+      <c r="O85" t="s">
+        <v>1537</v>
+      </c>
+      <c r="P85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>183</v>
+      </c>
+      <c r="F86" t="s">
+        <v>189</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1507</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1538</v>
+      </c>
+      <c r="P86" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>184</v>
+      </c>
+      <c r="F87" t="s">
+        <v>189</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1506</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1539</v>
+      </c>
+      <c r="P87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>185</v>
+      </c>
+      <c r="F88" t="s">
+        <v>189</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1540</v>
+      </c>
+      <c r="P88" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>184</v>
+      </c>
+      <c r="F89" t="s">
+        <v>189</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1504</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1541</v>
+      </c>
+      <c r="P89" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>185</v>
+      </c>
+      <c r="F90" t="s">
+        <v>189</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1503</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1542</v>
+      </c>
+      <c r="P90" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>184</v>
+      </c>
+      <c r="F91" t="s">
+        <v>189</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O91" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P91" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>183</v>
+      </c>
+      <c r="F92" t="s">
+        <v>189</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1501</v>
+      </c>
+      <c r="O92" t="s">
+        <v>1544</v>
+      </c>
+      <c r="P92" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" t="s">
+        <v>189</v>
+      </c>
+      <c r="G93" t="s">
+        <v>189</v>
+      </c>
+      <c r="H93" t="s">
+        <v>189</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1500</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1545</v>
+      </c>
+      <c r="P93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
+        <v>190</v>
+      </c>
+      <c r="G94" t="s">
+        <v>190</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1592</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1569</v>
+      </c>
+      <c r="P94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>185</v>
+      </c>
+      <c r="F95" t="s">
+        <v>190</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1593</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1570</v>
+      </c>
+      <c r="P95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
+        <v>190</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1594</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1571</v>
+      </c>
+      <c r="P96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>185</v>
+      </c>
+      <c r="F97" t="s">
+        <v>190</v>
+      </c>
+      <c r="G97" t="s">
+        <v>190</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1595</v>
+      </c>
+      <c r="O97" t="s">
+        <v>1572</v>
+      </c>
+      <c r="P97" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" t="s">
+        <v>190</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1596</v>
+      </c>
+      <c r="O98" t="s">
+        <v>1573</v>
+      </c>
+      <c r="P98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>183</v>
+      </c>
+      <c r="F99" t="s">
+        <v>190</v>
+      </c>
+      <c r="G99" t="s">
+        <v>190</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O99" t="s">
+        <v>1574</v>
+      </c>
+      <c r="P99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>185</v>
+      </c>
+      <c r="F100" t="s">
+        <v>190</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1598</v>
+      </c>
+      <c r="O100" t="s">
+        <v>1575</v>
+      </c>
+      <c r="P100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>184</v>
+      </c>
+      <c r="F101" t="s">
+        <v>190</v>
+      </c>
+      <c r="G101" t="s">
+        <v>190</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1599</v>
+      </c>
+      <c r="O101" t="s">
+        <v>1576</v>
+      </c>
+      <c r="P101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>183</v>
+      </c>
+      <c r="F102" t="s">
+        <v>190</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1600</v>
+      </c>
+      <c r="O102" t="s">
+        <v>1577</v>
+      </c>
+      <c r="P102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>185</v>
+      </c>
+      <c r="F103" t="s">
+        <v>190</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1601</v>
+      </c>
+      <c r="O103" t="s">
+        <v>1578</v>
+      </c>
+      <c r="P103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>183</v>
+      </c>
+      <c r="F104" t="s">
+        <v>190</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1602</v>
+      </c>
+      <c r="O104" t="s">
+        <v>1579</v>
+      </c>
+      <c r="P104" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>184</v>
+      </c>
+      <c r="F105" t="s">
+        <v>190</v>
+      </c>
+      <c r="G105" t="s">
+        <v>190</v>
+      </c>
+      <c r="H105" t="s">
+        <v>190</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O105" t="s">
+        <v>1580</v>
+      </c>
+      <c r="P105" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>185</v>
+      </c>
+      <c r="F106" t="s">
+        <v>190</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1604</v>
+      </c>
+      <c r="O106" t="s">
+        <v>1581</v>
+      </c>
+      <c r="P106" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>184</v>
+      </c>
+      <c r="F107" t="s">
+        <v>190</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1605</v>
+      </c>
+      <c r="O107" t="s">
+        <v>1582</v>
+      </c>
+      <c r="P107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>183</v>
+      </c>
+      <c r="F108" t="s">
+        <v>190</v>
+      </c>
+      <c r="G108" t="s">
+        <v>190</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1606</v>
+      </c>
+      <c r="O108" t="s">
+        <v>1583</v>
+      </c>
+      <c r="P108" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>183</v>
+      </c>
+      <c r="F109" t="s">
+        <v>190</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1607</v>
+      </c>
+      <c r="O109" t="s">
+        <v>1584</v>
+      </c>
+      <c r="P109" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>185</v>
+      </c>
+      <c r="F110" t="s">
+        <v>190</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1608</v>
+      </c>
+      <c r="O110" t="s">
+        <v>1585</v>
+      </c>
+      <c r="P110" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>184</v>
+      </c>
+      <c r="F111" t="s">
+        <v>190</v>
+      </c>
+      <c r="G111" t="s">
+        <v>190</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1609</v>
+      </c>
+      <c r="O111" t="s">
+        <v>1586</v>
+      </c>
+      <c r="P111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>190</v>
+      </c>
+      <c r="F112" t="s">
+        <v>190</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1610</v>
+      </c>
+      <c r="O112" t="s">
+        <v>1587</v>
+      </c>
+      <c r="P112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>184</v>
+      </c>
+      <c r="F113" t="s">
+        <v>190</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O113" t="s">
+        <v>1588</v>
+      </c>
+      <c r="P113" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>183</v>
+      </c>
+      <c r="F114" t="s">
+        <v>190</v>
+      </c>
+      <c r="G114" t="s">
+        <v>190</v>
+      </c>
+      <c r="H114" t="s">
+        <v>190</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1612</v>
+      </c>
+      <c r="O114" t="s">
+        <v>1589</v>
+      </c>
+      <c r="P114" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>185</v>
+      </c>
+      <c r="F115" t="s">
+        <v>190</v>
+      </c>
+      <c r="G115" t="s">
+        <v>190</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1613</v>
+      </c>
+      <c r="O115" t="s">
+        <v>1590</v>
+      </c>
+      <c r="P115" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>184</v>
+      </c>
+      <c r="F116" t="s">
+        <v>190</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1614</v>
+      </c>
+      <c r="O116" t="s">
+        <v>1591</v>
+      </c>
+      <c r="P116" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1638</v>
+      </c>
+      <c r="O117" t="s">
+        <v>1660</v>
+      </c>
+      <c r="P117" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1639</v>
+      </c>
+      <c r="O118" t="s">
+        <v>1661</v>
+      </c>
+      <c r="P118" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B119" s="2"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1640</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1662</v>
+      </c>
+      <c r="P119" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1641</v>
+      </c>
+      <c r="O120" t="s">
+        <v>1663</v>
+      </c>
+      <c r="P120" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O121" t="s">
+        <v>1664</v>
+      </c>
+      <c r="P121" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1643</v>
+      </c>
+      <c r="O122" t="s">
+        <v>1665</v>
+      </c>
+      <c r="P122" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1644</v>
+      </c>
+      <c r="O123" t="s">
+        <v>1666</v>
+      </c>
+      <c r="P123" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1645</v>
+      </c>
+      <c r="O124" t="s">
+        <v>1667</v>
+      </c>
+      <c r="P124" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B125" s="2"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1646</v>
+      </c>
+      <c r="O125" t="s">
+        <v>1668</v>
+      </c>
+      <c r="P125" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B126" s="2"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1004</v>
+      </c>
+      <c r="O126" t="s">
+        <v>1669</v>
+      </c>
+      <c r="P126" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B127" s="2"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1647</v>
+      </c>
+      <c r="O127" t="s">
+        <v>1670</v>
+      </c>
+      <c r="P127" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1648</v>
+      </c>
+      <c r="O128" t="s">
+        <v>1671</v>
+      </c>
+      <c r="P128" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1649</v>
+      </c>
+      <c r="O129" t="s">
+        <v>1672</v>
+      </c>
+      <c r="P129" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B130" s="2"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1650</v>
+      </c>
+      <c r="O130" t="s">
+        <v>1673</v>
+      </c>
+      <c r="P130" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1651</v>
+      </c>
+      <c r="O131" t="s">
+        <v>1674</v>
+      </c>
+      <c r="P131" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1652</v>
+      </c>
+      <c r="O132" t="s">
+        <v>1675</v>
+      </c>
+      <c r="P132" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B134" s="2"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B137" s="2"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1653</v>
+      </c>
+      <c r="O133" t="s">
+        <v>1676</v>
+      </c>
+      <c r="P133" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1654</v>
+      </c>
+      <c r="O134" t="s">
+        <v>1677</v>
+      </c>
+      <c r="P134" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1655</v>
+      </c>
+      <c r="O135" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P135" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1656</v>
+      </c>
+      <c r="O136" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P136" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1657</v>
+      </c>
+      <c r="O137" t="s">
+        <v>1680</v>
+      </c>
+      <c r="P137" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1658</v>
+      </c>
+      <c r="O138" t="s">
+        <v>1681</v>
+      </c>
+      <c r="P138" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1659</v>
+      </c>
+      <c r="O139" t="s">
+        <v>1682</v>
+      </c>
+      <c r="P139" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B140" s="2"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1727</v>
+      </c>
+      <c r="O140" t="s">
+        <v>1726</v>
+      </c>
+      <c r="P140" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1728</v>
+      </c>
+      <c r="O141" t="s">
+        <v>1725</v>
+      </c>
+      <c r="P141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B142" s="2"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1729</v>
+      </c>
+      <c r="O142" t="s">
+        <v>1724</v>
+      </c>
+      <c r="P142" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B143" s="2"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1730</v>
+      </c>
+      <c r="O143" t="s">
+        <v>1723</v>
+      </c>
+      <c r="P143" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B144" s="2"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1731</v>
+      </c>
+      <c r="O144" t="s">
+        <v>1722</v>
+      </c>
+      <c r="P144" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1732</v>
+      </c>
+      <c r="O145" t="s">
+        <v>1721</v>
+      </c>
+      <c r="P145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1059</v>
+      </c>
+      <c r="O146" t="s">
+        <v>1720</v>
+      </c>
+      <c r="P146" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B147" s="2"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1733</v>
+      </c>
+      <c r="O147" t="s">
+        <v>1719</v>
+      </c>
+      <c r="P147" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1734</v>
+      </c>
+      <c r="O148" t="s">
+        <v>1718</v>
+      </c>
+      <c r="P148" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B149" s="2"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1735</v>
+      </c>
+      <c r="O149" t="s">
+        <v>1717</v>
+      </c>
+      <c r="P149" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B150" s="2"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1736</v>
+      </c>
+      <c r="O150" t="s">
+        <v>1716</v>
+      </c>
+      <c r="P150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B151" s="2"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O151" t="s">
+        <v>1715</v>
+      </c>
+      <c r="P151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B152" s="2"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1738</v>
+      </c>
+      <c r="O152" t="s">
+        <v>1714</v>
+      </c>
+      <c r="P152" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B153" s="2"/>
+      <c r="B153" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1739</v>
+      </c>
+      <c r="O153" t="s">
+        <v>1713</v>
+      </c>
+      <c r="P153" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1740</v>
+      </c>
+      <c r="O154" t="s">
+        <v>1712</v>
+      </c>
+      <c r="P154" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1741</v>
+      </c>
+      <c r="O155" t="s">
+        <v>1711</v>
+      </c>
+      <c r="P155" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A156" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1742</v>
+      </c>
+      <c r="O156" t="s">
+        <v>1710</v>
+      </c>
+      <c r="P156" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A157" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1743</v>
+      </c>
+      <c r="O157" t="s">
+        <v>1709</v>
+      </c>
+      <c r="P157" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1744</v>
+      </c>
+      <c r="O158" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P158" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A159" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1703</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J159" t="s">
+        <v>1745</v>
+      </c>
+      <c r="O159" t="s">
+        <v>1707</v>
+      </c>
+      <c r="P159" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A160" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1746</v>
+      </c>
+      <c r="O160" t="s">
+        <v>1706</v>
+      </c>
+      <c r="P160" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18457,25 +21040,25 @@
           <x14:formula1>
             <xm:f>Dropdown!$A$35:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P153</xm:sqref>
+          <xm:sqref>P2:P160</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F10C9F24-F575-4BD2-8F2F-A6B57C82ED89}">
           <x14:formula1>
             <xm:f>Dropdown!$A$25:$A$32</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:N153</xm:sqref>
+          <xm:sqref>M2:N157</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{565C0D2B-EA0D-4467-B79C-3ADECD5A39AE}">
           <x14:formula1>
             <xm:f>Dropdown!$A$13:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:H153</xm:sqref>
+          <xm:sqref>E2:H160</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Frame" prompt="Select Frame" xr:uid="{3D5EB0A3-FDC5-4CF6-A091-B1EF72732FCB}">
           <x14:formula1>
             <xm:f>Dropdown!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C153</xm:sqref>
+          <xm:sqref>C2:C160</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/NetRealmsNanSetup/nanDECK/cards2.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Twizt\OneDrive\Desktop\Github\NetRealm-XGCTCG\NetRealmsNanSetup\nanDECK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XGCTCG\NetRealm-XGCTCG\NetRealmsNanSetup\nanDECK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9786E19D-BAD6-4E9B-9E93-F4A921630392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5417067E-D2EE-406B-8065-52039344C685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{B6057150-7C73-433A-9315-C43DECCCCE72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="2" activeTab="4" xr2:uid="{B6057150-7C73-433A-9315-C43DECCCCE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="7" r:id="rId1"/>
@@ -4263,75 +4263,6 @@
     <t>Cancel Culture Circuit</t>
   </si>
   <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\EchoesofAccusation.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\TheLolcowEffect.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\FlameWarInciter.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CancelCultureManifest.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\DramaQueensProclamation.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\TabloidTactics.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\FabricatedEvidence.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\PublicOutcry.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\DigitalWitchHunt.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\TrollsPlayground.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CloutChasersArena.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\InternetTrialbyFire.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\EchoChamberNexus.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\FeigningApology.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\ConflictAlgorithm.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CloudofMisunderstanding.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\PilingOn.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\SocialFallout.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\ReputationRecycler.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\FrenzyFeed.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\VirtueSignalBeacon.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\DramaMagnet.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CancelCultureCircuit.jpg</t>
-  </si>
-  <si>
     <t>When Cancel Culture Circuit enters the Grid, exile all opposing Units with Integrity of 4 or less. Whenever an opponent plays a new Unit, they must pay 2 additional energy or have it exiled immediately.</t>
   </si>
   <si>
@@ -5284,6 +5215,75 @@
   </si>
   <si>
     <t>When Premiere Night enters the Grid, draw three cards. You may reveal a Relic from among them and play it without paying its cost.</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\EchoesofAccusation.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\TheLolcowEffect.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\FlameWarInciter.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CancelCultureManifest.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\DramaQueensProclamation.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\TabloidTactics.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\FabricatedEvidence.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\PublicOutcry.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\DigitalWitchHunt.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\TrollsPlayground.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CloutChasersArena.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\InternetTrialbyFire.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\EchoChamberNexus.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\FeigningApology.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\ConflictAlgorithm.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CloudofMisunderstanding.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\PilingOn.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\SocialFallout.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\ReputationRecycler.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\FrenzyFeed.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\VirtueSignalBeacon.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\DramaMagnet.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CancelCultureCircuit.png</t>
   </si>
 </sst>
 </file>
@@ -5779,20 +5779,20 @@
       <selection activeCell="B27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="68.88671875" customWidth="1"/>
-    <col min="3" max="3" width="83.44140625" customWidth="1"/>
-    <col min="4" max="4" width="58.5546875" customWidth="1"/>
-    <col min="8" max="8" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" customWidth="1"/>
+    <col min="3" max="3" width="83.42578125" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" customWidth="1"/>
     <col min="9" max="9" width="102" customWidth="1"/>
-    <col min="10" max="10" width="48.44140625" customWidth="1"/>
-    <col min="14" max="14" width="88.33203125" customWidth="1"/>
-    <col min="15" max="15" width="56.6640625" customWidth="1"/>
+    <col min="10" max="10" width="48.42578125" customWidth="1"/>
+    <col min="14" max="14" width="88.28515625" customWidth="1"/>
+    <col min="15" max="15" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>200</v>
       </c>
@@ -5862,7 +5862,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>200</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>200</v>
       </c>
@@ -5908,7 +5908,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>200</v>
       </c>
@@ -5931,7 +5931,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>206</v>
       </c>
@@ -5954,7 +5954,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>206</v>
       </c>
@@ -5977,7 +5977,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>206</v>
       </c>
@@ -6000,7 +6000,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>206</v>
       </c>
@@ -6023,7 +6023,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>211</v>
       </c>
@@ -6046,7 +6046,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>211</v>
       </c>
@@ -6069,7 +6069,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>211</v>
       </c>
@@ -6092,7 +6092,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>211</v>
       </c>
@@ -6115,7 +6115,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>216</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>216</v>
       </c>
@@ -6161,7 +6161,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>216</v>
       </c>
@@ -6184,7 +6184,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>216</v>
       </c>
@@ -6207,7 +6207,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>221</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>221</v>
       </c>
@@ -6253,7 +6253,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>221</v>
       </c>
@@ -6276,7 +6276,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>221</v>
       </c>
@@ -6299,7 +6299,7 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>226</v>
       </c>
@@ -6322,7 +6322,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>226</v>
       </c>
@@ -6345,7 +6345,7 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>226</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>226</v>
       </c>
@@ -6391,7 +6391,7 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>231</v>
       </c>
@@ -6414,7 +6414,7 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>231</v>
       </c>
@@ -6437,7 +6437,7 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>231</v>
       </c>
@@ -6460,7 +6460,7 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>231</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -6500,7 +6500,7 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>236</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>243</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>249</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>255</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>261</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>267</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -6727,7 +6727,7 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -6744,7 +6744,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -6761,7 +6761,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -6778,7 +6778,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -6795,7 +6795,7 @@
       <c r="N41" s="11"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -6812,7 +6812,7 @@
       <c r="N42" s="11"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -6829,7 +6829,7 @@
       <c r="N43" s="11"/>
       <c r="O43" s="10"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -6846,7 +6846,7 @@
       <c r="N44" s="11"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -6863,7 +6863,7 @@
       <c r="N45" s="11"/>
       <c r="O45" s="10"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -6880,7 +6880,7 @@
       <c r="N46" s="11"/>
       <c r="O46" s="10"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -6897,7 +6897,7 @@
       <c r="N47" s="11"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -6914,7 +6914,7 @@
       <c r="N48" s="11"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -6931,7 +6931,7 @@
       <c r="N49" s="11"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -6948,7 +6948,7 @@
       <c r="N50" s="11"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -6965,7 +6965,7 @@
       <c r="N51" s="11"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -6982,7 +6982,7 @@
       <c r="N52" s="11"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -6999,7 +6999,7 @@
       <c r="N53" s="11"/>
       <c r="O53" s="10"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -7016,7 +7016,7 @@
       <c r="N54" s="11"/>
       <c r="O54" s="10"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -7058,25 +7058,25 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
-    <col min="3" max="3" width="59.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="34.6640625" customWidth="1"/>
-    <col min="10" max="10" width="114.6640625" customWidth="1"/>
-    <col min="11" max="11" width="97.44140625" customWidth="1"/>
-    <col min="12" max="12" width="128.88671875" customWidth="1"/>
-    <col min="15" max="15" width="46.6640625" customWidth="1"/>
-    <col min="16" max="16" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" customWidth="1"/>
+    <col min="10" max="10" width="114.7109375" customWidth="1"/>
+    <col min="11" max="11" width="97.42578125" customWidth="1"/>
+    <col min="12" max="12" width="128.85546875" customWidth="1"/>
+    <col min="15" max="15" width="46.7109375" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>274</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>282</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>289</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>296</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>303</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>310</v>
       </c>
@@ -7418,19 +7418,19 @@
       <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="60.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="131" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="90.33203125" customWidth="1"/>
+    <col min="15" max="15" width="90.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>13</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>14</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>14</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>15</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>15</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>15</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>15</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>15</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>16</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>16</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>16</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>16</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>16</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>16</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>17</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>17</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>17</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>17</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>17</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>17</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>17</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>17</v>
       </c>
@@ -12583,7 +12583,7 @@
       </c>
       <c r="O138" s="10"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>17</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
@@ -13067,20 +13067,20 @@
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" customWidth="1"/>
-    <col min="4" max="4" width="75.44140625" customWidth="1"/>
-    <col min="5" max="5" width="48.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
     <col min="6" max="6" width="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="88.44140625" customWidth="1"/>
-    <col min="15" max="15" width="69.44140625" customWidth="1"/>
+    <col min="7" max="7" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="88.42578125" customWidth="1"/>
+    <col min="15" max="15" width="69.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
@@ -14069,7 +14069,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>13</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>13</v>
       </c>
@@ -14222,7 +14222,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>13</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>13</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>13</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>13</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>13</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>13</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>13</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>13</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>13</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>14</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>14</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>14</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>14</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>14</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>14</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>14</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>14</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>14</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>14</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>14</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>14</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>14</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>14</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>14</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>15</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>15</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>15</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>15</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>15</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>15</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>15</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>15</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>15</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>15</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>15</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>15</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>15</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>15</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>15</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>16</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>16</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>16</v>
       </c>
@@ -15488,7 +15488,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>16</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>16</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>16</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>16</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>16</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>16</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>16</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>16</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>16</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>16</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>16</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>16</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>17</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>17</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>17</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>17</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>17</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>17</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>17</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>17</v>
       </c>
@@ -16103,7 +16103,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>17</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>17</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>17</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>17</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>17</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>17</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>17</v>
       </c>
@@ -16374,21 +16374,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E2B55B-907C-44E7-A92E-00A1BB478166}">
   <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J107" workbookViewId="0">
-      <selection activeCell="J160" sqref="J160"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="107.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="54.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="107.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -16974,7 +16974,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -17076,7 +17076,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -17443,7 +17443,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -17510,7 +17510,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -17857,7 +17857,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -17924,7 +17924,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>1406</v>
+        <v>1724</v>
       </c>
       <c r="E48" t="s">
         <v>185</v>
@@ -18014,19 +18014,19 @@
         <v>188</v>
       </c>
       <c r="I48" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J48" t="s">
-        <v>1452</v>
+        <v>1429</v>
       </c>
       <c r="O48" t="s">
-        <v>1453</v>
+        <v>1430</v>
       </c>
       <c r="P48" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
@@ -18037,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>1407</v>
+        <v>1725</v>
       </c>
       <c r="E49" t="s">
         <v>184</v>
@@ -18046,19 +18046,19 @@
         <v>188</v>
       </c>
       <c r="I49" t="s">
+        <v>1408</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1428</v>
+      </c>
+      <c r="O49" t="s">
         <v>1431</v>
-      </c>
-      <c r="J49" t="s">
-        <v>1451</v>
-      </c>
-      <c r="O49" t="s">
-        <v>1454</v>
       </c>
       <c r="P49" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1408</v>
+        <v>1726</v>
       </c>
       <c r="E50" t="s">
         <v>185</v>
@@ -18081,19 +18081,19 @@
         <v>188</v>
       </c>
       <c r="I50" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J50" t="s">
-        <v>1450</v>
+        <v>1427</v>
       </c>
       <c r="O50" t="s">
-        <v>1455</v>
+        <v>1432</v>
       </c>
       <c r="P50" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>1409</v>
+        <v>1727</v>
       </c>
       <c r="E51" t="s">
         <v>183</v>
@@ -18113,19 +18113,19 @@
         <v>188</v>
       </c>
       <c r="I51" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J51" t="s">
-        <v>1449</v>
+        <v>1426</v>
       </c>
       <c r="O51" t="s">
-        <v>1456</v>
+        <v>1433</v>
       </c>
       <c r="P51" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>1410</v>
+        <v>1728</v>
       </c>
       <c r="E52" t="s">
         <v>183</v>
@@ -18151,19 +18151,19 @@
         <v>188</v>
       </c>
       <c r="I52" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J52" t="s">
-        <v>1448</v>
+        <v>1425</v>
       </c>
       <c r="O52" t="s">
-        <v>1457</v>
+        <v>1434</v>
       </c>
       <c r="P52" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>1411</v>
+        <v>1729</v>
       </c>
       <c r="E53" t="s">
         <v>184</v>
@@ -18183,19 +18183,19 @@
         <v>188</v>
       </c>
       <c r="I53" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J53" t="s">
-        <v>1447</v>
+        <v>1424</v>
       </c>
       <c r="O53" t="s">
-        <v>1458</v>
+        <v>1435</v>
       </c>
       <c r="P53" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>1412</v>
+        <v>1730</v>
       </c>
       <c r="E54" t="s">
         <v>185</v>
@@ -18218,19 +18218,19 @@
         <v>188</v>
       </c>
       <c r="I54" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J54" t="s">
-        <v>1446</v>
+        <v>1423</v>
       </c>
       <c r="O54" t="s">
-        <v>1459</v>
+        <v>1436</v>
       </c>
       <c r="P54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>1413</v>
+        <v>1731</v>
       </c>
       <c r="E55" t="s">
         <v>185</v>
@@ -18250,19 +18250,19 @@
         <v>188</v>
       </c>
       <c r="I55" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J55" t="s">
-        <v>1445</v>
+        <v>1422</v>
       </c>
       <c r="O55" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="P55" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>1414</v>
+        <v>1732</v>
       </c>
       <c r="E56" t="s">
         <v>183</v>
@@ -18285,19 +18285,19 @@
         <v>188</v>
       </c>
       <c r="I56" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J56" t="s">
-        <v>1444</v>
+        <v>1421</v>
       </c>
       <c r="O56" t="s">
-        <v>1461</v>
+        <v>1438</v>
       </c>
       <c r="P56" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>1415</v>
+        <v>1733</v>
       </c>
       <c r="E57" t="s">
         <v>184</v>
@@ -18317,19 +18317,19 @@
         <v>188</v>
       </c>
       <c r="I57" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J57" t="s">
-        <v>1443</v>
+        <v>1420</v>
       </c>
       <c r="O57" t="s">
-        <v>1462</v>
+        <v>1439</v>
       </c>
       <c r="P57" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>1416</v>
+        <v>1734</v>
       </c>
       <c r="E58" t="s">
         <v>184</v>
@@ -18349,19 +18349,19 @@
         <v>188</v>
       </c>
       <c r="I58" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J58" t="s">
-        <v>1442</v>
+        <v>1419</v>
       </c>
       <c r="O58" t="s">
-        <v>1463</v>
+        <v>1440</v>
       </c>
       <c r="P58" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>1417</v>
+        <v>1735</v>
       </c>
       <c r="E59" t="s">
         <v>183</v>
@@ -18387,19 +18387,19 @@
         <v>188</v>
       </c>
       <c r="I59" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J59" t="s">
+        <v>1418</v>
+      </c>
+      <c r="O59" t="s">
         <v>1441</v>
-      </c>
-      <c r="O59" t="s">
-        <v>1464</v>
       </c>
       <c r="P59" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>13</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>1418</v>
+        <v>1736</v>
       </c>
       <c r="E60" t="s">
         <v>185</v>
@@ -18419,19 +18419,19 @@
         <v>188</v>
       </c>
       <c r="I60" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J60" t="s">
-        <v>1440</v>
+        <v>1417</v>
       </c>
       <c r="O60" t="s">
-        <v>1465</v>
+        <v>1442</v>
       </c>
       <c r="P60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>1419</v>
+        <v>1737</v>
       </c>
       <c r="E61" t="s">
         <v>182</v>
@@ -18451,19 +18451,19 @@
         <v>188</v>
       </c>
       <c r="I61" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J61" t="s">
-        <v>1439</v>
+        <v>1416</v>
       </c>
       <c r="O61" t="s">
-        <v>1466</v>
+        <v>1443</v>
       </c>
       <c r="P61" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>1420</v>
+        <v>1738</v>
       </c>
       <c r="E62" t="s">
         <v>184</v>
@@ -18483,19 +18483,19 @@
         <v>188</v>
       </c>
       <c r="I62" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J62" t="s">
-        <v>1438</v>
+        <v>1415</v>
       </c>
       <c r="O62" t="s">
-        <v>1467</v>
+        <v>1444</v>
       </c>
       <c r="P62" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>1421</v>
+        <v>1739</v>
       </c>
       <c r="E63" t="s">
         <v>185</v>
@@ -18515,19 +18515,19 @@
         <v>188</v>
       </c>
       <c r="I63" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J63" t="s">
-        <v>1437</v>
+        <v>1414</v>
       </c>
       <c r="O63" t="s">
-        <v>1468</v>
+        <v>1445</v>
       </c>
       <c r="P63" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>1422</v>
+        <v>1740</v>
       </c>
       <c r="E64" t="s">
         <v>182</v>
@@ -18550,19 +18550,19 @@
         <v>188</v>
       </c>
       <c r="I64" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J64" t="s">
-        <v>1436</v>
+        <v>1413</v>
       </c>
       <c r="O64" t="s">
-        <v>1469</v>
+        <v>1446</v>
       </c>
       <c r="P64" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
@@ -18573,7 +18573,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>1423</v>
+        <v>1741</v>
       </c>
       <c r="E65" t="s">
         <v>184</v>
@@ -18585,19 +18585,19 @@
         <v>188</v>
       </c>
       <c r="I65" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J65" t="s">
-        <v>1435</v>
+        <v>1412</v>
       </c>
       <c r="O65" t="s">
-        <v>1470</v>
+        <v>1447</v>
       </c>
       <c r="P65" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>1424</v>
+        <v>1742</v>
       </c>
       <c r="E66" t="s">
         <v>183</v>
@@ -18617,19 +18617,19 @@
         <v>188</v>
       </c>
       <c r="I66" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J66" t="s">
-        <v>1434</v>
+        <v>1411</v>
       </c>
       <c r="O66" t="s">
-        <v>1471</v>
+        <v>1448</v>
       </c>
       <c r="P66" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>1425</v>
+        <v>1743</v>
       </c>
       <c r="E67" t="s">
         <v>184</v>
@@ -18652,19 +18652,19 @@
         <v>188</v>
       </c>
       <c r="I67" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J67" t="s">
-        <v>1433</v>
+        <v>1410</v>
       </c>
       <c r="O67" t="s">
-        <v>1472</v>
+        <v>1449</v>
       </c>
       <c r="P67" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>13</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>1426</v>
+        <v>1744</v>
       </c>
       <c r="E68" t="s">
         <v>185</v>
@@ -18684,19 +18684,19 @@
         <v>188</v>
       </c>
       <c r="I68" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J68" t="s">
-        <v>1432</v>
+        <v>1409</v>
       </c>
       <c r="O68" t="s">
-        <v>1473</v>
+        <v>1450</v>
       </c>
       <c r="P68" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>13</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>1427</v>
+        <v>1745</v>
       </c>
       <c r="E69" t="s">
         <v>184</v>
@@ -18716,19 +18716,19 @@
         <v>188</v>
       </c>
       <c r="I69" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J69" t="s">
-        <v>1430</v>
+        <v>1407</v>
       </c>
       <c r="O69" t="s">
-        <v>1474</v>
+        <v>1451</v>
       </c>
       <c r="P69" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>13</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>1428</v>
+        <v>1746</v>
       </c>
       <c r="E70" t="s">
         <v>183</v>
@@ -18751,24 +18751,24 @@
         <v>188</v>
       </c>
       <c r="I70" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
       <c r="J70" t="s">
-        <v>1429</v>
+        <v>1406</v>
       </c>
       <c r="O70" t="s">
-        <v>1475</v>
+        <v>1452</v>
       </c>
       <c r="P70" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1476</v>
+        <v>1453</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -18783,24 +18783,24 @@
         <v>189</v>
       </c>
       <c r="I71" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J71" t="s">
         <v>1499</v>
       </c>
-      <c r="J71" t="s">
-        <v>1522</v>
-      </c>
       <c r="O71" t="s">
-        <v>1523</v>
+        <v>1500</v>
       </c>
       <c r="P71" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1477</v>
+        <v>1454</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -18812,24 +18812,24 @@
         <v>189</v>
       </c>
       <c r="I72" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J72" t="s">
-        <v>1521</v>
+        <v>1498</v>
       </c>
       <c r="O72" t="s">
-        <v>1524</v>
+        <v>1501</v>
       </c>
       <c r="P72" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1478</v>
+        <v>1455</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -18841,24 +18841,24 @@
         <v>189</v>
       </c>
       <c r="I73" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J73" t="s">
-        <v>1520</v>
+        <v>1497</v>
       </c>
       <c r="O73" t="s">
-        <v>1525</v>
+        <v>1502</v>
       </c>
       <c r="P73" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1479</v>
+        <v>1456</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -18870,24 +18870,24 @@
         <v>189</v>
       </c>
       <c r="I74" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J74" t="s">
-        <v>1519</v>
+        <v>1496</v>
       </c>
       <c r="O74" t="s">
-        <v>1526</v>
+        <v>1503</v>
       </c>
       <c r="P74" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1480</v>
+        <v>1457</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -18899,24 +18899,24 @@
         <v>189</v>
       </c>
       <c r="I75" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J75" t="s">
-        <v>1518</v>
+        <v>1495</v>
       </c>
       <c r="O75" t="s">
-        <v>1527</v>
+        <v>1504</v>
       </c>
       <c r="P75" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1481</v>
+        <v>1458</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -18934,24 +18934,24 @@
         <v>189</v>
       </c>
       <c r="I76" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J76" t="s">
-        <v>1517</v>
+        <v>1494</v>
       </c>
       <c r="O76" t="s">
-        <v>1528</v>
+        <v>1505</v>
       </c>
       <c r="P76" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1482</v>
+        <v>1459</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -18963,24 +18963,24 @@
         <v>189</v>
       </c>
       <c r="I77" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J77" t="s">
-        <v>1516</v>
+        <v>1493</v>
       </c>
       <c r="O77" t="s">
-        <v>1529</v>
+        <v>1506</v>
       </c>
       <c r="P77" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1483</v>
+        <v>1460</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -18992,24 +18992,24 @@
         <v>189</v>
       </c>
       <c r="I78" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J78" t="s">
-        <v>1515</v>
+        <v>1492</v>
       </c>
       <c r="O78" t="s">
-        <v>1530</v>
+        <v>1507</v>
       </c>
       <c r="P78" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1484</v>
+        <v>1461</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -19021,24 +19021,24 @@
         <v>189</v>
       </c>
       <c r="I79" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J79" t="s">
-        <v>1514</v>
+        <v>1491</v>
       </c>
       <c r="O79" t="s">
-        <v>1531</v>
+        <v>1508</v>
       </c>
       <c r="P79" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1485</v>
+        <v>1462</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -19050,24 +19050,24 @@
         <v>189</v>
       </c>
       <c r="I80" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J80" t="s">
-        <v>1513</v>
+        <v>1490</v>
       </c>
       <c r="O80" t="s">
-        <v>1532</v>
+        <v>1509</v>
       </c>
       <c r="P80" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1486</v>
+        <v>1463</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -19079,24 +19079,24 @@
         <v>189</v>
       </c>
       <c r="I81" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J81" t="s">
-        <v>1512</v>
+        <v>1489</v>
       </c>
       <c r="O81" t="s">
-        <v>1533</v>
+        <v>1510</v>
       </c>
       <c r="P81" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1487</v>
+        <v>1464</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -19108,24 +19108,24 @@
         <v>189</v>
       </c>
       <c r="I82" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J82" t="s">
+        <v>1488</v>
+      </c>
+      <c r="O82" t="s">
         <v>1511</v>
-      </c>
-      <c r="O82" t="s">
-        <v>1534</v>
       </c>
       <c r="P82" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1488</v>
+        <v>1465</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -19143,24 +19143,24 @@
         <v>189</v>
       </c>
       <c r="I83" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J83" t="s">
-        <v>1510</v>
+        <v>1487</v>
       </c>
       <c r="O83" t="s">
-        <v>1535</v>
+        <v>1512</v>
       </c>
       <c r="P83" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1489</v>
+        <v>1466</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -19172,24 +19172,24 @@
         <v>189</v>
       </c>
       <c r="I84" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J84" t="s">
-        <v>1509</v>
+        <v>1486</v>
       </c>
       <c r="O84" t="s">
-        <v>1536</v>
+        <v>1513</v>
       </c>
       <c r="P84" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1490</v>
+        <v>1467</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -19201,24 +19201,24 @@
         <v>189</v>
       </c>
       <c r="I85" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J85" t="s">
-        <v>1508</v>
+        <v>1485</v>
       </c>
       <c r="O85" t="s">
-        <v>1537</v>
+        <v>1514</v>
       </c>
       <c r="P85" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1491</v>
+        <v>1468</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -19230,24 +19230,24 @@
         <v>189</v>
       </c>
       <c r="I86" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J86" t="s">
-        <v>1507</v>
+        <v>1484</v>
       </c>
       <c r="O86" t="s">
-        <v>1538</v>
+        <v>1515</v>
       </c>
       <c r="P86" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1492</v>
+        <v>1469</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -19259,24 +19259,24 @@
         <v>189</v>
       </c>
       <c r="I87" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J87" t="s">
-        <v>1506</v>
+        <v>1483</v>
       </c>
       <c r="O87" t="s">
-        <v>1539</v>
+        <v>1516</v>
       </c>
       <c r="P87" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1493</v>
+        <v>1470</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -19288,24 +19288,24 @@
         <v>189</v>
       </c>
       <c r="I88" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J88" t="s">
-        <v>1505</v>
+        <v>1482</v>
       </c>
       <c r="O88" t="s">
-        <v>1540</v>
+        <v>1517</v>
       </c>
       <c r="P88" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1494</v>
+        <v>1471</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -19317,24 +19317,24 @@
         <v>189</v>
       </c>
       <c r="I89" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J89" t="s">
-        <v>1504</v>
+        <v>1481</v>
       </c>
       <c r="O89" t="s">
-        <v>1541</v>
+        <v>1518</v>
       </c>
       <c r="P89" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1495</v>
+        <v>1472</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
@@ -19346,24 +19346,24 @@
         <v>189</v>
       </c>
       <c r="I90" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J90" t="s">
-        <v>1503</v>
+        <v>1480</v>
       </c>
       <c r="O90" t="s">
-        <v>1542</v>
+        <v>1519</v>
       </c>
       <c r="P90" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1496</v>
+        <v>1473</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -19375,24 +19375,24 @@
         <v>189</v>
       </c>
       <c r="I91" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J91" t="s">
-        <v>1502</v>
+        <v>1479</v>
       </c>
       <c r="O91" t="s">
-        <v>1543</v>
+        <v>1520</v>
       </c>
       <c r="P91" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1497</v>
+        <v>1474</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -19404,24 +19404,24 @@
         <v>189</v>
       </c>
       <c r="I92" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J92" t="s">
-        <v>1501</v>
+        <v>1478</v>
       </c>
       <c r="O92" t="s">
-        <v>1544</v>
+        <v>1521</v>
       </c>
       <c r="P92" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1498</v>
+        <v>1475</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -19439,24 +19439,24 @@
         <v>189</v>
       </c>
       <c r="I93" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
       <c r="J93" t="s">
-        <v>1500</v>
+        <v>1477</v>
       </c>
       <c r="O93" t="s">
-        <v>1545</v>
+        <v>1522</v>
       </c>
       <c r="P93" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -19471,24 +19471,24 @@
         <v>190</v>
       </c>
       <c r="I94" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J94" t="s">
-        <v>1592</v>
+        <v>1569</v>
       </c>
       <c r="O94" t="s">
-        <v>1569</v>
+        <v>1546</v>
       </c>
       <c r="P94" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1547</v>
+        <v>1524</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
@@ -19500,24 +19500,24 @@
         <v>190</v>
       </c>
       <c r="I95" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J95" t="s">
-        <v>1593</v>
+        <v>1570</v>
       </c>
       <c r="O95" t="s">
-        <v>1570</v>
+        <v>1547</v>
       </c>
       <c r="P95" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1548</v>
+        <v>1525</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -19529,24 +19529,24 @@
         <v>190</v>
       </c>
       <c r="I96" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J96" t="s">
-        <v>1594</v>
+        <v>1571</v>
       </c>
       <c r="O96" t="s">
-        <v>1571</v>
+        <v>1548</v>
       </c>
       <c r="P96" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1549</v>
+        <v>1526</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -19561,24 +19561,24 @@
         <v>190</v>
       </c>
       <c r="I97" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J97" t="s">
-        <v>1595</v>
+        <v>1572</v>
       </c>
       <c r="O97" t="s">
-        <v>1572</v>
+        <v>1549</v>
       </c>
       <c r="P97" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1550</v>
+        <v>1527</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -19590,24 +19590,24 @@
         <v>190</v>
       </c>
       <c r="I98" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J98" t="s">
-        <v>1596</v>
+        <v>1573</v>
       </c>
       <c r="O98" t="s">
-        <v>1573</v>
+        <v>1550</v>
       </c>
       <c r="P98" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1551</v>
+        <v>1528</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -19622,24 +19622,24 @@
         <v>190</v>
       </c>
       <c r="I99" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J99" t="s">
-        <v>1597</v>
+        <v>1574</v>
       </c>
       <c r="O99" t="s">
-        <v>1574</v>
+        <v>1551</v>
       </c>
       <c r="P99" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1552</v>
+        <v>1529</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
@@ -19651,24 +19651,24 @@
         <v>190</v>
       </c>
       <c r="I100" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J100" t="s">
-        <v>1598</v>
+        <v>1575</v>
       </c>
       <c r="O100" t="s">
-        <v>1575</v>
+        <v>1552</v>
       </c>
       <c r="P100" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1553</v>
+        <v>1530</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -19683,24 +19683,24 @@
         <v>190</v>
       </c>
       <c r="I101" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J101" t="s">
-        <v>1599</v>
+        <v>1576</v>
       </c>
       <c r="O101" t="s">
-        <v>1576</v>
+        <v>1553</v>
       </c>
       <c r="P101" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1554</v>
+        <v>1531</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -19712,24 +19712,24 @@
         <v>190</v>
       </c>
       <c r="I102" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J102" t="s">
-        <v>1600</v>
+        <v>1577</v>
       </c>
       <c r="O102" t="s">
-        <v>1577</v>
+        <v>1554</v>
       </c>
       <c r="P102" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1555</v>
+        <v>1532</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -19741,24 +19741,24 @@
         <v>190</v>
       </c>
       <c r="I103" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J103" t="s">
-        <v>1601</v>
+        <v>1578</v>
       </c>
       <c r="O103" t="s">
-        <v>1578</v>
+        <v>1555</v>
       </c>
       <c r="P103" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1556</v>
+        <v>1533</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -19770,24 +19770,24 @@
         <v>190</v>
       </c>
       <c r="I104" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J104" t="s">
-        <v>1602</v>
+        <v>1579</v>
       </c>
       <c r="O104" t="s">
-        <v>1579</v>
+        <v>1556</v>
       </c>
       <c r="P104" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1557</v>
+        <v>1534</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -19805,24 +19805,24 @@
         <v>190</v>
       </c>
       <c r="I105" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J105" t="s">
-        <v>1603</v>
+        <v>1580</v>
       </c>
       <c r="O105" t="s">
-        <v>1580</v>
+        <v>1557</v>
       </c>
       <c r="P105" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1558</v>
+        <v>1535</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -19834,24 +19834,24 @@
         <v>190</v>
       </c>
       <c r="I106" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J106" t="s">
-        <v>1604</v>
+        <v>1581</v>
       </c>
       <c r="O106" t="s">
-        <v>1581</v>
+        <v>1558</v>
       </c>
       <c r="P106" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1559</v>
+        <v>1536</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -19863,24 +19863,24 @@
         <v>190</v>
       </c>
       <c r="I107" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J107" t="s">
-        <v>1605</v>
+        <v>1582</v>
       </c>
       <c r="O107" t="s">
-        <v>1582</v>
+        <v>1559</v>
       </c>
       <c r="P107" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1560</v>
+        <v>1537</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -19895,24 +19895,24 @@
         <v>190</v>
       </c>
       <c r="I108" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J108" t="s">
-        <v>1606</v>
+        <v>1583</v>
       </c>
       <c r="O108" t="s">
-        <v>1583</v>
+        <v>1560</v>
       </c>
       <c r="P108" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1561</v>
+        <v>1538</v>
       </c>
       <c r="C109" t="s">
         <v>3</v>
@@ -19924,24 +19924,24 @@
         <v>190</v>
       </c>
       <c r="I109" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J109" t="s">
-        <v>1607</v>
+        <v>1584</v>
       </c>
       <c r="O109" t="s">
-        <v>1584</v>
+        <v>1561</v>
       </c>
       <c r="P109" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1562</v>
+        <v>1539</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
@@ -19953,24 +19953,24 @@
         <v>190</v>
       </c>
       <c r="I110" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J110" t="s">
-        <v>1608</v>
+        <v>1585</v>
       </c>
       <c r="O110" t="s">
-        <v>1585</v>
+        <v>1562</v>
       </c>
       <c r="P110" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1563</v>
+        <v>1540</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -19985,24 +19985,24 @@
         <v>190</v>
       </c>
       <c r="I111" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J111" t="s">
-        <v>1609</v>
+        <v>1586</v>
       </c>
       <c r="O111" t="s">
-        <v>1586</v>
+        <v>1563</v>
       </c>
       <c r="P111" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1564</v>
+        <v>1541</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
@@ -20014,24 +20014,24 @@
         <v>190</v>
       </c>
       <c r="I112" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J112" t="s">
-        <v>1610</v>
+        <v>1587</v>
       </c>
       <c r="O112" t="s">
-        <v>1587</v>
+        <v>1564</v>
       </c>
       <c r="P112" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1565</v>
+        <v>1542</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -20043,24 +20043,24 @@
         <v>190</v>
       </c>
       <c r="I113" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J113" t="s">
-        <v>1611</v>
+        <v>1588</v>
       </c>
       <c r="O113" t="s">
-        <v>1588</v>
+        <v>1565</v>
       </c>
       <c r="P113" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1566</v>
+        <v>1543</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -20078,24 +20078,24 @@
         <v>190</v>
       </c>
       <c r="I114" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J114" t="s">
-        <v>1612</v>
+        <v>1589</v>
       </c>
       <c r="O114" t="s">
-        <v>1589</v>
+        <v>1566</v>
       </c>
       <c r="P114" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1567</v>
+        <v>1544</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -20110,24 +20110,24 @@
         <v>190</v>
       </c>
       <c r="I115" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J115" t="s">
-        <v>1613</v>
+        <v>1590</v>
       </c>
       <c r="O115" t="s">
-        <v>1590</v>
+        <v>1567</v>
       </c>
       <c r="P115" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1568</v>
+        <v>1545</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -20139,119 +20139,119 @@
         <v>190</v>
       </c>
       <c r="I116" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="J116" t="s">
-        <v>1614</v>
+        <v>1591</v>
       </c>
       <c r="O116" t="s">
-        <v>1591</v>
+        <v>1568</v>
       </c>
       <c r="P116" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1616</v>
+        <v>1593</v>
       </c>
       <c r="I117" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J117" t="s">
-        <v>1638</v>
+        <v>1615</v>
       </c>
       <c r="O117" t="s">
-        <v>1660</v>
+        <v>1637</v>
       </c>
       <c r="P117" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1617</v>
+        <v>1594</v>
       </c>
       <c r="I118" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J118" t="s">
-        <v>1639</v>
+        <v>1616</v>
       </c>
       <c r="O118" t="s">
-        <v>1661</v>
+        <v>1638</v>
       </c>
       <c r="P118" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1618</v>
+        <v>1595</v>
       </c>
       <c r="I119" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J119" t="s">
-        <v>1640</v>
+        <v>1617</v>
       </c>
       <c r="O119" t="s">
-        <v>1662</v>
+        <v>1639</v>
       </c>
       <c r="P119" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1619</v>
+        <v>1596</v>
       </c>
       <c r="I120" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J120" t="s">
-        <v>1641</v>
+        <v>1618</v>
       </c>
       <c r="O120" t="s">
-        <v>1663</v>
+        <v>1640</v>
       </c>
       <c r="P120" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1620</v>
+        <v>1597</v>
       </c>
       <c r="I121" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J121" t="s">
-        <v>1642</v>
+        <v>1619</v>
       </c>
       <c r="O121" t="s">
-        <v>1664</v>
+        <v>1641</v>
       </c>
       <c r="P121" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
@@ -20259,773 +20259,773 @@
         <v>158</v>
       </c>
       <c r="I122" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J122" t="s">
-        <v>1643</v>
+        <v>1620</v>
       </c>
       <c r="O122" t="s">
-        <v>1665</v>
+        <v>1642</v>
       </c>
       <c r="P122" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J123" t="s">
         <v>1621</v>
       </c>
-      <c r="I123" t="s">
-        <v>1683</v>
-      </c>
-      <c r="J123" t="s">
-        <v>1644</v>
-      </c>
       <c r="O123" t="s">
-        <v>1666</v>
+        <v>1643</v>
       </c>
       <c r="P123" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J124" t="s">
         <v>1622</v>
       </c>
-      <c r="I124" t="s">
-        <v>1683</v>
-      </c>
-      <c r="J124" t="s">
-        <v>1645</v>
-      </c>
       <c r="O124" t="s">
-        <v>1667</v>
+        <v>1644</v>
       </c>
       <c r="P124" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J125" t="s">
         <v>1623</v>
       </c>
-      <c r="I125" t="s">
-        <v>1683</v>
-      </c>
-      <c r="J125" t="s">
-        <v>1646</v>
-      </c>
       <c r="O125" t="s">
-        <v>1668</v>
+        <v>1645</v>
       </c>
       <c r="P125" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1624</v>
+        <v>1601</v>
       </c>
       <c r="I126" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J126" t="s">
         <v>1004</v>
       </c>
       <c r="O126" t="s">
-        <v>1669</v>
+        <v>1646</v>
       </c>
       <c r="P126" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1625</v>
+        <v>1602</v>
       </c>
       <c r="I127" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J127" t="s">
+        <v>1624</v>
+      </c>
+      <c r="O127" t="s">
         <v>1647</v>
-      </c>
-      <c r="O127" t="s">
-        <v>1670</v>
       </c>
       <c r="P127" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1626</v>
+        <v>1603</v>
       </c>
       <c r="I128" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J128" t="s">
+        <v>1625</v>
+      </c>
+      <c r="O128" t="s">
         <v>1648</v>
-      </c>
-      <c r="O128" t="s">
-        <v>1671</v>
       </c>
       <c r="P128" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1627</v>
+        <v>1604</v>
       </c>
       <c r="I129" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J129" t="s">
+        <v>1626</v>
+      </c>
+      <c r="O129" t="s">
         <v>1649</v>
-      </c>
-      <c r="O129" t="s">
-        <v>1672</v>
       </c>
       <c r="P129" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1628</v>
+        <v>1605</v>
       </c>
       <c r="I130" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J130" t="s">
+        <v>1627</v>
+      </c>
+      <c r="O130" t="s">
         <v>1650</v>
-      </c>
-      <c r="O130" t="s">
-        <v>1673</v>
       </c>
       <c r="P130" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1629</v>
+        <v>1606</v>
       </c>
       <c r="I131" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J131" t="s">
+        <v>1628</v>
+      </c>
+      <c r="O131" t="s">
         <v>1651</v>
-      </c>
-      <c r="O131" t="s">
-        <v>1674</v>
       </c>
       <c r="P131" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1630</v>
+        <v>1607</v>
       </c>
       <c r="I132" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J132" t="s">
+        <v>1629</v>
+      </c>
+      <c r="O132" t="s">
         <v>1652</v>
-      </c>
-      <c r="O132" t="s">
-        <v>1675</v>
       </c>
       <c r="P132" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1631</v>
+        <v>1608</v>
       </c>
       <c r="I133" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J133" t="s">
+        <v>1630</v>
+      </c>
+      <c r="O133" t="s">
         <v>1653</v>
-      </c>
-      <c r="O133" t="s">
-        <v>1676</v>
       </c>
       <c r="P133" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1632</v>
+        <v>1609</v>
       </c>
       <c r="I134" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J134" t="s">
+        <v>1631</v>
+      </c>
+      <c r="O134" t="s">
         <v>1654</v>
-      </c>
-      <c r="O134" t="s">
-        <v>1677</v>
       </c>
       <c r="P134" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1633</v>
+        <v>1610</v>
       </c>
       <c r="I135" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J135" t="s">
+        <v>1632</v>
+      </c>
+      <c r="O135" t="s">
         <v>1655</v>
-      </c>
-      <c r="O135" t="s">
-        <v>1678</v>
       </c>
       <c r="P135" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1634</v>
+        <v>1611</v>
       </c>
       <c r="I136" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J136" t="s">
+        <v>1633</v>
+      </c>
+      <c r="O136" t="s">
         <v>1656</v>
-      </c>
-      <c r="O136" t="s">
-        <v>1679</v>
       </c>
       <c r="P136" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1635</v>
+        <v>1612</v>
       </c>
       <c r="I137" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J137" t="s">
+        <v>1634</v>
+      </c>
+      <c r="O137" t="s">
         <v>1657</v>
-      </c>
-      <c r="O137" t="s">
-        <v>1680</v>
       </c>
       <c r="P137" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1636</v>
+        <v>1613</v>
       </c>
       <c r="I138" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J138" t="s">
+        <v>1635</v>
+      </c>
+      <c r="O138" t="s">
         <v>1658</v>
-      </c>
-      <c r="O138" t="s">
-        <v>1681</v>
       </c>
       <c r="P138" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1637</v>
+        <v>1614</v>
       </c>
       <c r="I139" t="s">
-        <v>1683</v>
+        <v>1660</v>
       </c>
       <c r="J139" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O139" t="s">
         <v>1659</v>
-      </c>
-      <c r="O139" t="s">
-        <v>1682</v>
       </c>
       <c r="P139" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1684</v>
+        <v>1661</v>
       </c>
       <c r="I140" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J140" t="s">
-        <v>1727</v>
+        <v>1704</v>
       </c>
       <c r="O140" t="s">
-        <v>1726</v>
+        <v>1703</v>
       </c>
       <c r="P140" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1685</v>
+        <v>1662</v>
       </c>
       <c r="I141" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J141" t="s">
         <v>1705</v>
       </c>
-      <c r="J141" t="s">
-        <v>1728</v>
-      </c>
       <c r="O141" t="s">
-        <v>1725</v>
+        <v>1702</v>
       </c>
       <c r="P141" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1686</v>
+        <v>1663</v>
       </c>
       <c r="I142" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J142" t="s">
-        <v>1729</v>
+        <v>1706</v>
       </c>
       <c r="O142" t="s">
-        <v>1724</v>
+        <v>1701</v>
       </c>
       <c r="P142" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1687</v>
+        <v>1664</v>
       </c>
       <c r="I143" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J143" t="s">
-        <v>1730</v>
+        <v>1707</v>
       </c>
       <c r="O143" t="s">
-        <v>1723</v>
+        <v>1700</v>
       </c>
       <c r="P143" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1688</v>
+        <v>1665</v>
       </c>
       <c r="I144" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J144" t="s">
-        <v>1731</v>
+        <v>1708</v>
       </c>
       <c r="O144" t="s">
-        <v>1722</v>
+        <v>1699</v>
       </c>
       <c r="P144" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1689</v>
+        <v>1666</v>
       </c>
       <c r="I145" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J145" t="s">
-        <v>1732</v>
+        <v>1709</v>
       </c>
       <c r="O145" t="s">
-        <v>1721</v>
+        <v>1698</v>
       </c>
       <c r="P145" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1690</v>
+        <v>1667</v>
       </c>
       <c r="I146" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J146" t="s">
         <v>1059</v>
       </c>
       <c r="O146" t="s">
-        <v>1720</v>
+        <v>1697</v>
       </c>
       <c r="P146" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1691</v>
+        <v>1668</v>
       </c>
       <c r="I147" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J147" t="s">
-        <v>1733</v>
+        <v>1710</v>
       </c>
       <c r="O147" t="s">
-        <v>1719</v>
+        <v>1696</v>
       </c>
       <c r="P147" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1692</v>
+        <v>1669</v>
       </c>
       <c r="I148" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J148" t="s">
-        <v>1734</v>
+        <v>1711</v>
       </c>
       <c r="O148" t="s">
-        <v>1718</v>
+        <v>1695</v>
       </c>
       <c r="P148" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1693</v>
+        <v>1670</v>
       </c>
       <c r="I149" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J149" t="s">
-        <v>1735</v>
+        <v>1712</v>
       </c>
       <c r="O149" t="s">
-        <v>1717</v>
+        <v>1694</v>
       </c>
       <c r="P149" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1694</v>
+        <v>1671</v>
       </c>
       <c r="I150" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J150" t="s">
-        <v>1736</v>
+        <v>1713</v>
       </c>
       <c r="O150" t="s">
-        <v>1716</v>
+        <v>1693</v>
       </c>
       <c r="P150" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1695</v>
+        <v>1672</v>
       </c>
       <c r="I151" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J151" t="s">
-        <v>1737</v>
+        <v>1714</v>
       </c>
       <c r="O151" t="s">
-        <v>1715</v>
+        <v>1692</v>
       </c>
       <c r="P151" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1696</v>
+        <v>1673</v>
       </c>
       <c r="I152" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J152" t="s">
-        <v>1738</v>
+        <v>1715</v>
       </c>
       <c r="O152" t="s">
-        <v>1714</v>
+        <v>1691</v>
       </c>
       <c r="P152" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1697</v>
+        <v>1674</v>
       </c>
       <c r="I153" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J153" t="s">
-        <v>1739</v>
+        <v>1716</v>
       </c>
       <c r="O153" t="s">
-        <v>1713</v>
+        <v>1690</v>
       </c>
       <c r="P153" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1698</v>
+        <v>1675</v>
       </c>
       <c r="I154" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J154" t="s">
-        <v>1740</v>
+        <v>1717</v>
       </c>
       <c r="O154" t="s">
-        <v>1712</v>
+        <v>1689</v>
       </c>
       <c r="P154" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1699</v>
+        <v>1676</v>
       </c>
       <c r="I155" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J155" t="s">
-        <v>1741</v>
+        <v>1718</v>
       </c>
       <c r="O155" t="s">
-        <v>1711</v>
+        <v>1688</v>
       </c>
       <c r="P155" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1700</v>
+        <v>1677</v>
       </c>
       <c r="I156" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J156" t="s">
-        <v>1742</v>
+        <v>1719</v>
       </c>
       <c r="O156" t="s">
-        <v>1710</v>
+        <v>1687</v>
       </c>
       <c r="P156" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1701</v>
+        <v>1678</v>
       </c>
       <c r="I157" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J157" t="s">
-        <v>1743</v>
+        <v>1720</v>
       </c>
       <c r="O157" t="s">
-        <v>1709</v>
+        <v>1686</v>
       </c>
       <c r="P157" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>1702</v>
+        <v>1679</v>
       </c>
       <c r="I158" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J158" t="s">
-        <v>1744</v>
+        <v>1721</v>
       </c>
       <c r="O158" t="s">
-        <v>1708</v>
+        <v>1685</v>
       </c>
       <c r="P158" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B159" t="s">
-        <v>1703</v>
+        <v>1680</v>
       </c>
       <c r="I159" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J159" t="s">
-        <v>1745</v>
+        <v>1722</v>
       </c>
       <c r="O159" t="s">
-        <v>1707</v>
+        <v>1684</v>
       </c>
       <c r="P159" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>1704</v>
+        <v>1681</v>
       </c>
       <c r="I160" t="s">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="J160" t="s">
-        <v>1746</v>
+        <v>1723</v>
       </c>
       <c r="O160" t="s">
-        <v>1706</v>
+        <v>1683</v>
       </c>
       <c r="P160" t="s">
         <v>199</v>
@@ -21074,12 +21074,12 @@
       <selection sqref="A1:P150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -21129,895 +21129,895 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
@@ -22066,9 +22066,9 @@
       <selection sqref="A1:P150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -22118,895 +22118,895 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
@@ -23055,222 +23055,222 @@
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.44140625" customWidth="1"/>
+    <col min="1" max="1" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1196</v>
       </c>

--- a/NetRealmsNanSetup/nanDECK/cards2.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XGCTCG\NetRealm-XGCTCG\NetRealmsNanSetup\nanDECK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Twizt\OneDrive\Desktop\Github\NetRealm-XGCTCG\NetRealmsNanSetup\nanDECK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5417067E-D2EE-406B-8065-52039344C685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A659C1CF-EDCA-45F1-9C7A-865E72E44EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="2" activeTab="4" xr2:uid="{B6057150-7C73-433A-9315-C43DECCCCE72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{B6057150-7C73-433A-9315-C43DECCCCE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="1747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4505" uniqueCount="1770">
   <si>
     <t>C:\Users\TK\Desktop\nanDECK\netrealms\frames\frame_commonr.png</t>
   </si>
@@ -5284,6 +5284,75 @@
   </si>
   <si>
     <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Drama\Programs\CancelCultureCircuit.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\PixelatedRealms.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\GameOverReset.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\GlitchworldArena.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\FinalVictoryBanner.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\RespawnProtocol.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\AchievementUnlocked.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\ArcadeRevival.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\BossBattlePrelude.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\ExtraLife.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\DigitalAvatarBond.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\HighScorePursuit.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\ESportsArena.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\SpeedrunMomentum.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\FinalBossCall.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\GlowingLootChest.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\PowerUpInfusion.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\PixelStorm.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\CheckpointSave.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\LagShield.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\ArcadeCabinetNexus.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\HealthBarOverflow.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\ControllersGrip.png</t>
+  </si>
+  <si>
+    <t>C:\Users\TK\Desktop\nanDECK\netrealms\cards\Gaming\Programs\RetroRevival.png</t>
   </si>
 </sst>
 </file>
@@ -5779,20 +5848,20 @@
       <selection activeCell="B27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="68.85546875" customWidth="1"/>
-    <col min="3" max="3" width="83.42578125" customWidth="1"/>
-    <col min="4" max="4" width="58.5703125" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" customWidth="1"/>
+    <col min="3" max="3" width="83.44140625" customWidth="1"/>
+    <col min="4" max="4" width="58.5546875" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" customWidth="1"/>
     <col min="9" max="9" width="102" customWidth="1"/>
-    <col min="10" max="10" width="48.42578125" customWidth="1"/>
-    <col min="14" max="14" width="88.28515625" customWidth="1"/>
-    <col min="15" max="15" width="56.7109375" customWidth="1"/>
+    <col min="10" max="10" width="48.44140625" customWidth="1"/>
+    <col min="14" max="14" width="88.33203125" customWidth="1"/>
+    <col min="15" max="15" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5839,7 +5908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>200</v>
       </c>
@@ -5862,7 +5931,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>200</v>
       </c>
@@ -5885,7 +5954,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>200</v>
       </c>
@@ -5908,7 +5977,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>200</v>
       </c>
@@ -5931,7 +6000,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>206</v>
       </c>
@@ -5954,7 +6023,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>206</v>
       </c>
@@ -5977,7 +6046,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>206</v>
       </c>
@@ -6000,7 +6069,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>206</v>
       </c>
@@ -6023,7 +6092,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>211</v>
       </c>
@@ -6046,7 +6115,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>211</v>
       </c>
@@ -6069,7 +6138,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>211</v>
       </c>
@@ -6092,7 +6161,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>211</v>
       </c>
@@ -6115,7 +6184,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>216</v>
       </c>
@@ -6138,7 +6207,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>216</v>
       </c>
@@ -6161,7 +6230,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>216</v>
       </c>
@@ -6184,7 +6253,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>216</v>
       </c>
@@ -6207,7 +6276,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>221</v>
       </c>
@@ -6230,7 +6299,7 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>221</v>
       </c>
@@ -6253,7 +6322,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>221</v>
       </c>
@@ -6276,7 +6345,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>221</v>
       </c>
@@ -6299,7 +6368,7 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>226</v>
       </c>
@@ -6322,7 +6391,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>226</v>
       </c>
@@ -6345,7 +6414,7 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>226</v>
       </c>
@@ -6368,7 +6437,7 @@
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>226</v>
       </c>
@@ -6391,7 +6460,7 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>231</v>
       </c>
@@ -6414,7 +6483,7 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>231</v>
       </c>
@@ -6437,7 +6506,7 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>231</v>
       </c>
@@ -6460,7 +6529,7 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>231</v>
       </c>
@@ -6483,7 +6552,7 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -6500,7 +6569,7 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>236</v>
       </c>
@@ -6535,7 +6604,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>243</v>
       </c>
@@ -6570,7 +6639,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>249</v>
       </c>
@@ -6605,7 +6674,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>255</v>
       </c>
@@ -6640,7 +6709,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>261</v>
       </c>
@@ -6675,7 +6744,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>267</v>
       </c>
@@ -6710,7 +6779,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -6727,7 +6796,7 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -6744,7 +6813,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -6761,7 +6830,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -6778,7 +6847,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -6795,7 +6864,7 @@
       <c r="N41" s="11"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -6812,7 +6881,7 @@
       <c r="N42" s="11"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -6829,7 +6898,7 @@
       <c r="N43" s="11"/>
       <c r="O43" s="10"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -6846,7 +6915,7 @@
       <c r="N44" s="11"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -6863,7 +6932,7 @@
       <c r="N45" s="11"/>
       <c r="O45" s="10"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -6880,7 +6949,7 @@
       <c r="N46" s="11"/>
       <c r="O46" s="10"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -6897,7 +6966,7 @@
       <c r="N47" s="11"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -6914,7 +6983,7 @@
       <c r="N48" s="11"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -6931,7 +7000,7 @@
       <c r="N49" s="11"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -6948,7 +7017,7 @@
       <c r="N50" s="11"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -6965,7 +7034,7 @@
       <c r="N51" s="11"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -6982,7 +7051,7 @@
       <c r="N52" s="11"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -6999,7 +7068,7 @@
       <c r="N53" s="11"/>
       <c r="O53" s="10"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -7016,7 +7085,7 @@
       <c r="N54" s="11"/>
       <c r="O54" s="10"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -7058,25 +7127,25 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" customWidth="1"/>
-    <col min="10" max="10" width="114.7109375" customWidth="1"/>
-    <col min="11" max="11" width="97.42578125" customWidth="1"/>
-    <col min="12" max="12" width="128.85546875" customWidth="1"/>
-    <col min="15" max="15" width="46.7109375" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" customWidth="1"/>
+    <col min="10" max="10" width="114.6640625" customWidth="1"/>
+    <col min="11" max="11" width="97.44140625" customWidth="1"/>
+    <col min="12" max="12" width="128.88671875" customWidth="1"/>
+    <col min="15" max="15" width="46.6640625" customWidth="1"/>
+    <col min="16" max="16" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7126,7 +7195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>274</v>
       </c>
@@ -7168,7 +7237,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>282</v>
       </c>
@@ -7210,7 +7279,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>289</v>
       </c>
@@ -7252,7 +7321,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>296</v>
       </c>
@@ -7294,7 +7363,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>303</v>
       </c>
@@ -7336,7 +7405,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>310</v>
       </c>
@@ -7418,19 +7487,19 @@
       <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="60.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="131" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="90.28515625" customWidth="1"/>
+    <col min="15" max="15" width="90.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -7481,7 +7550,7 @@
       </c>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -7519,7 +7588,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -7557,7 +7626,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -7601,7 +7670,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -7639,7 +7708,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -7677,7 +7746,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -7718,7 +7787,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -7756,7 +7825,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -7794,7 +7863,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -7835,7 +7904,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -7873,7 +7942,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -7911,7 +7980,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -7952,7 +8021,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -7990,7 +8059,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -8028,7 +8097,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -8066,7 +8135,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -8104,7 +8173,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -8142,7 +8211,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -8183,7 +8252,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -8221,7 +8290,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -8262,7 +8331,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -8303,7 +8372,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -8341,7 +8410,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -8385,7 +8454,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -8423,7 +8492,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -8461,7 +8530,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
@@ -8499,7 +8568,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -8540,7 +8609,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -8578,7 +8647,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -8616,7 +8685,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -8657,7 +8726,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -8695,7 +8764,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -8733,7 +8802,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -8771,7 +8840,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -8812,7 +8881,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
@@ -8850,7 +8919,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -8894,7 +8963,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -8932,7 +9001,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -8970,7 +9039,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -9008,7 +9077,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -9049,7 +9118,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -9087,7 +9156,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -9125,7 +9194,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -9166,7 +9235,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -9210,7 +9279,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -9248,7 +9317,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -9292,7 +9361,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
@@ -9327,7 +9396,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
@@ -9362,7 +9431,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
@@ -9397,7 +9466,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
@@ -9432,7 +9501,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
@@ -9470,7 +9539,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
@@ -9505,7 +9574,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
@@ -9540,7 +9609,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
@@ -9575,7 +9644,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
@@ -9610,7 +9679,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
@@ -9645,7 +9714,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
@@ -9683,7 +9752,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
@@ -9718,7 +9787,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>13</v>
       </c>
@@ -9753,7 +9822,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
@@ -9788,7 +9857,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
@@ -9823,7 +9892,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
@@ -9858,7 +9927,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
@@ -9893,7 +9962,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
@@ -9928,7 +9997,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
@@ -9966,7 +10035,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
@@ -10004,7 +10073,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
@@ -10039,7 +10108,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>14</v>
       </c>
@@ -10074,7 +10143,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>14</v>
       </c>
@@ -10109,7 +10178,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
@@ -10150,7 +10219,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
@@ -10185,7 +10254,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
@@ -10220,7 +10289,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
@@ -10255,7 +10324,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
@@ -10293,7 +10362,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
@@ -10328,7 +10397,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
@@ -10363,7 +10432,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
@@ -10401,7 +10470,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
@@ -10436,7 +10505,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
@@ -10471,7 +10540,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
@@ -10506,7 +10575,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
@@ -10544,7 +10613,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
@@ -10579,7 +10648,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
@@ -10614,7 +10683,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
@@ -10652,7 +10721,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
@@ -10687,7 +10756,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
@@ -10728,7 +10797,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>15</v>
       </c>
@@ -10769,7 +10838,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>15</v>
       </c>
@@ -10807,7 +10876,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>15</v>
       </c>
@@ -10842,7 +10911,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>15</v>
       </c>
@@ -10877,7 +10946,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
@@ -10912,7 +10981,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>15</v>
       </c>
@@ -10947,7 +11016,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
@@ -10982,7 +11051,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
@@ -11017,7 +11086,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
@@ -11052,7 +11121,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
@@ -11093,7 +11162,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
@@ -11128,7 +11197,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
@@ -11163,7 +11232,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
@@ -11201,7 +11270,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
@@ -11233,7 +11302,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
@@ -11274,7 +11343,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
@@ -11309,7 +11378,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
@@ -11344,7 +11413,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
@@ -11382,7 +11451,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
@@ -11420,7 +11489,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
@@ -11455,7 +11524,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
@@ -11493,7 +11562,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
@@ -11534,7 +11603,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>16</v>
       </c>
@@ -11569,7 +11638,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
@@ -11604,7 +11673,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>16</v>
       </c>
@@ -11639,7 +11708,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>16</v>
       </c>
@@ -11674,7 +11743,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>16</v>
       </c>
@@ -11709,7 +11778,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>16</v>
       </c>
@@ -11744,7 +11813,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>16</v>
       </c>
@@ -11779,7 +11848,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
@@ -11820,7 +11889,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
@@ -11855,7 +11924,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
@@ -11890,7 +11959,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
@@ -11928,7 +11997,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
@@ -11963,7 +12032,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
@@ -12001,7 +12070,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
@@ -12036,7 +12105,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
@@ -12071,7 +12140,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
@@ -12106,7 +12175,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
@@ -12147,7 +12216,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
@@ -12182,7 +12251,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
@@ -12220,7 +12289,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
@@ -12255,7 +12324,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
@@ -12290,7 +12359,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>17</v>
       </c>
@@ -12331,7 +12400,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>17</v>
       </c>
@@ -12366,7 +12435,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>17</v>
       </c>
@@ -12401,7 +12470,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>17</v>
       </c>
@@ -12442,7 +12511,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>17</v>
       </c>
@@ -12477,7 +12546,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>17</v>
       </c>
@@ -12512,7 +12581,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>17</v>
       </c>
@@ -12550,7 +12619,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>17</v>
       </c>
@@ -12583,7 +12652,7 @@
       </c>
       <c r="O138" s="10"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>17</v>
       </c>
@@ -12621,7 +12690,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
@@ -12656,7 +12725,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
@@ -12691,7 +12760,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
@@ -12729,7 +12798,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
@@ -12764,7 +12833,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
@@ -12799,7 +12868,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
@@ -12834,7 +12903,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
@@ -12869,7 +12938,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
@@ -12907,7 +12976,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
@@ -12942,7 +13011,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
@@ -12977,7 +13046,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
@@ -13067,20 +13136,20 @@
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="62.7109375" customWidth="1"/>
-    <col min="4" max="4" width="75.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+    <col min="4" max="4" width="75.44140625" customWidth="1"/>
+    <col min="5" max="5" width="48.88671875" customWidth="1"/>
     <col min="6" max="6" width="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="88.42578125" customWidth="1"/>
-    <col min="15" max="15" width="69.42578125" customWidth="1"/>
+    <col min="7" max="7" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="88.44140625" customWidth="1"/>
+    <col min="15" max="15" width="69.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -13130,7 +13199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -13160,7 +13229,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -13190,7 +13259,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -13220,7 +13289,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -13250,7 +13319,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -13280,7 +13349,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -13313,7 +13382,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -13343,7 +13412,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -13373,7 +13442,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -13403,7 +13472,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -13433,7 +13502,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -13463,7 +13532,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -13493,7 +13562,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -13523,7 +13592,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -13553,7 +13622,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -13586,7 +13655,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -13616,7 +13685,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13646,7 +13715,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -13676,7 +13745,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -13706,7 +13775,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -13739,7 +13808,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -13769,7 +13838,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
@@ -13799,7 +13868,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -13829,7 +13898,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -13859,7 +13928,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -13889,7 +13958,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
@@ -13919,7 +13988,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -13949,7 +14018,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -13979,7 +14048,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -14009,7 +14078,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -14039,7 +14108,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
@@ -14069,7 +14138,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>13</v>
       </c>
@@ -14099,7 +14168,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -14129,7 +14198,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
@@ -14162,7 +14231,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>13</v>
       </c>
@@ -14192,7 +14261,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>13</v>
       </c>
@@ -14222,7 +14291,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>13</v>
       </c>
@@ -14252,7 +14321,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>13</v>
       </c>
@@ -14282,7 +14351,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>13</v>
       </c>
@@ -14312,7 +14381,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>13</v>
       </c>
@@ -14342,7 +14411,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>13</v>
       </c>
@@ -14372,7 +14441,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>13</v>
       </c>
@@ -14402,7 +14471,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>13</v>
       </c>
@@ -14432,7 +14501,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>13</v>
       </c>
@@ -14462,7 +14531,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>13</v>
       </c>
@@ -14492,7 +14561,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>14</v>
       </c>
@@ -14522,7 +14591,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>14</v>
       </c>
@@ -14552,7 +14621,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>14</v>
       </c>
@@ -14582,7 +14651,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>14</v>
       </c>
@@ -14612,7 +14681,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>14</v>
       </c>
@@ -14642,7 +14711,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>14</v>
       </c>
@@ -14672,7 +14741,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>14</v>
       </c>
@@ -14705,7 +14774,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>14</v>
       </c>
@@ -14735,7 +14804,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>14</v>
       </c>
@@ -14765,7 +14834,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>14</v>
       </c>
@@ -14795,7 +14864,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>14</v>
       </c>
@@ -14825,7 +14894,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>14</v>
       </c>
@@ -14855,7 +14924,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>14</v>
       </c>
@@ -14885,7 +14954,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>14</v>
       </c>
@@ -14915,7 +14984,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>14</v>
       </c>
@@ -14945,7 +15014,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>15</v>
       </c>
@@ -14975,7 +15044,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>15</v>
       </c>
@@ -15005,7 +15074,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>15</v>
       </c>
@@ -15035,7 +15104,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>15</v>
       </c>
@@ -15068,7 +15137,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>15</v>
       </c>
@@ -15098,7 +15167,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
         <v>15</v>
       </c>
@@ -15128,7 +15197,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>15</v>
       </c>
@@ -15158,7 +15227,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>15</v>
       </c>
@@ -15188,7 +15257,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>15</v>
       </c>
@@ -15218,7 +15287,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
         <v>15</v>
       </c>
@@ -15248,7 +15317,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>15</v>
       </c>
@@ -15278,7 +15347,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>15</v>
       </c>
@@ -15308,7 +15377,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>15</v>
       </c>
@@ -15338,7 +15407,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>15</v>
       </c>
@@ -15368,7 +15437,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>15</v>
       </c>
@@ -15398,7 +15467,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>16</v>
       </c>
@@ -15428,7 +15497,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>16</v>
       </c>
@@ -15458,7 +15527,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>16</v>
       </c>
@@ -15488,7 +15557,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>16</v>
       </c>
@@ -15521,7 +15590,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>16</v>
       </c>
@@ -15551,7 +15620,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>16</v>
       </c>
@@ -15581,7 +15650,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>16</v>
       </c>
@@ -15614,7 +15683,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>16</v>
       </c>
@@ -15644,7 +15713,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>16</v>
       </c>
@@ -15674,7 +15743,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>16</v>
       </c>
@@ -15704,7 +15773,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>16</v>
       </c>
@@ -15734,7 +15803,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>16</v>
       </c>
@@ -15767,7 +15836,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>16</v>
       </c>
@@ -15797,7 +15866,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>16</v>
       </c>
@@ -15827,7 +15896,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>16</v>
       </c>
@@ -15860,7 +15929,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>17</v>
       </c>
@@ -15890,7 +15959,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>17</v>
       </c>
@@ -15920,7 +15989,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>17</v>
       </c>
@@ -15950,7 +16019,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>17</v>
       </c>
@@ -15980,7 +16049,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>17</v>
       </c>
@@ -16010,7 +16079,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>17</v>
       </c>
@@ -16043,7 +16112,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>17</v>
       </c>
@@ -16073,7 +16142,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>17</v>
       </c>
@@ -16103,7 +16172,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>17</v>
       </c>
@@ -16133,7 +16202,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>17</v>
       </c>
@@ -16163,7 +16232,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>17</v>
       </c>
@@ -16193,7 +16262,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>17</v>
       </c>
@@ -16223,7 +16292,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>17</v>
       </c>
@@ -16253,7 +16322,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>17</v>
       </c>
@@ -16283,7 +16352,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>17</v>
       </c>
@@ -16374,21 +16443,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E2B55B-907C-44E7-A92E-00A1BB478166}">
   <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D76" sqref="D72:D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
     <col min="3" max="3" width="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="107.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="107.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -16438,7 +16507,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -16473,7 +16542,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -16511,7 +16580,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -16543,7 +16612,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -16578,7 +16647,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -16610,7 +16679,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -16645,7 +16714,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -16677,7 +16746,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -16712,7 +16781,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -16744,7 +16813,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -16776,7 +16845,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -16808,7 +16877,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -16840,7 +16909,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -16872,7 +16941,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -16904,7 +16973,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -16939,7 +17008,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -16974,7 +17043,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -17006,7 +17075,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -17044,7 +17113,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -17076,7 +17145,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -17108,7 +17177,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -17146,7 +17215,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -17178,7 +17247,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -17210,7 +17279,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -17245,7 +17314,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -17277,7 +17346,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
@@ -17309,7 +17378,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -17344,7 +17413,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -17373,7 +17442,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -17408,7 +17477,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -17443,7 +17512,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -17478,7 +17547,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -17510,7 +17579,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -17545,7 +17614,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -17577,7 +17646,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
@@ -17615,7 +17684,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -17650,7 +17719,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -17682,7 +17751,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -17717,7 +17786,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -17752,7 +17821,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -17790,7 +17859,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -17822,7 +17891,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -17857,7 +17926,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -17889,7 +17958,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -17924,7 +17993,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -17956,7 +18025,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -17994,7 +18063,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
@@ -18026,7 +18095,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
@@ -18058,7 +18127,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
@@ -18093,7 +18162,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
@@ -18125,7 +18194,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
@@ -18163,7 +18232,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
@@ -18195,7 +18264,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
@@ -18230,7 +18299,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
@@ -18262,7 +18331,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
@@ -18297,7 +18366,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
@@ -18329,7 +18398,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
@@ -18361,7 +18430,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
@@ -18399,7 +18468,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>13</v>
       </c>
@@ -18431,7 +18500,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
@@ -18463,7 +18532,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
@@ -18495,7 +18564,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
@@ -18527,7 +18596,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
@@ -18562,7 +18631,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
@@ -18597,7 +18666,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
@@ -18629,7 +18698,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
@@ -18664,7 +18733,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>13</v>
       </c>
@@ -18696,7 +18765,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>13</v>
       </c>
@@ -18728,7 +18797,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>13</v>
       </c>
@@ -18763,7 +18832,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
@@ -18773,6 +18842,9 @@
       <c r="C71" t="s">
         <v>4</v>
       </c>
+      <c r="D71" t="s">
+        <v>1747</v>
+      </c>
       <c r="E71" t="s">
         <v>185</v>
       </c>
@@ -18795,7 +18867,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
@@ -18805,6 +18877,9 @@
       <c r="C72" t="s">
         <v>4</v>
       </c>
+      <c r="D72" t="s">
+        <v>1749</v>
+      </c>
       <c r="E72" t="s">
         <v>183</v>
       </c>
@@ -18824,7 +18899,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
@@ -18834,6 +18909,9 @@
       <c r="C73" t="s">
         <v>2</v>
       </c>
+      <c r="D73" t="s">
+        <v>1751</v>
+      </c>
       <c r="E73" t="s">
         <v>189</v>
       </c>
@@ -18853,7 +18931,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
@@ -18863,6 +18941,9 @@
       <c r="C74" t="s">
         <v>3</v>
       </c>
+      <c r="D74" t="s">
+        <v>1752</v>
+      </c>
       <c r="E74" t="s">
         <v>182</v>
       </c>
@@ -18882,7 +18963,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
@@ -18892,6 +18973,9 @@
       <c r="C75" t="s">
         <v>1</v>
       </c>
+      <c r="D75" t="s">
+        <v>1753</v>
+      </c>
       <c r="E75" t="s">
         <v>184</v>
       </c>
@@ -18911,7 +18995,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
@@ -18921,6 +19005,9 @@
       <c r="C76" t="s">
         <v>2</v>
       </c>
+      <c r="D76" t="s">
+        <v>1754</v>
+      </c>
       <c r="E76" t="s">
         <v>183</v>
       </c>
@@ -18946,7 +19033,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
@@ -18956,6 +19043,9 @@
       <c r="C77" t="s">
         <v>2</v>
       </c>
+      <c r="D77" t="s">
+        <v>1748</v>
+      </c>
       <c r="E77" t="s">
         <v>183</v>
       </c>
@@ -18975,7 +19065,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
@@ -18985,6 +19075,9 @@
       <c r="C78" t="s">
         <v>1</v>
       </c>
+      <c r="D78" t="s">
+        <v>1755</v>
+      </c>
       <c r="E78" t="s">
         <v>185</v>
       </c>
@@ -19004,7 +19097,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
@@ -19014,6 +19107,9 @@
       <c r="C79" t="s">
         <v>1</v>
       </c>
+      <c r="D79" t="s">
+        <v>1756</v>
+      </c>
       <c r="E79" t="s">
         <v>184</v>
       </c>
@@ -19033,7 +19129,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
@@ -19043,6 +19139,9 @@
       <c r="C80" t="s">
         <v>1</v>
       </c>
+      <c r="D80" t="s">
+        <v>1757</v>
+      </c>
       <c r="E80" t="s">
         <v>182</v>
       </c>
@@ -19062,7 +19161,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
@@ -19072,6 +19171,9 @@
       <c r="C81" t="s">
         <v>1</v>
       </c>
+      <c r="D81" t="s">
+        <v>1758</v>
+      </c>
       <c r="E81" t="s">
         <v>184</v>
       </c>
@@ -19091,7 +19193,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
@@ -19101,6 +19203,9 @@
       <c r="C82" t="s">
         <v>1</v>
       </c>
+      <c r="D82" t="s">
+        <v>1759</v>
+      </c>
       <c r="E82" t="s">
         <v>185</v>
       </c>
@@ -19120,7 +19225,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
@@ -19130,6 +19235,9 @@
       <c r="C83" t="s">
         <v>2</v>
       </c>
+      <c r="D83" t="s">
+        <v>1760</v>
+      </c>
       <c r="E83" t="s">
         <v>183</v>
       </c>
@@ -19155,7 +19263,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
@@ -19165,6 +19273,9 @@
       <c r="C84" t="s">
         <v>1</v>
       </c>
+      <c r="D84" t="s">
+        <v>1761</v>
+      </c>
       <c r="E84" t="s">
         <v>182</v>
       </c>
@@ -19184,7 +19295,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
@@ -19194,6 +19305,9 @@
       <c r="C85" t="s">
         <v>2</v>
       </c>
+      <c r="D85" t="s">
+        <v>1762</v>
+      </c>
       <c r="E85" t="s">
         <v>185</v>
       </c>
@@ -19213,7 +19327,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
@@ -19223,6 +19337,9 @@
       <c r="C86" t="s">
         <v>2</v>
       </c>
+      <c r="D86" t="s">
+        <v>1763</v>
+      </c>
       <c r="E86" t="s">
         <v>183</v>
       </c>
@@ -19242,7 +19359,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
@@ -19252,6 +19369,9 @@
       <c r="C87" t="s">
         <v>1</v>
       </c>
+      <c r="D87" t="s">
+        <v>1764</v>
+      </c>
       <c r="E87" t="s">
         <v>184</v>
       </c>
@@ -19271,7 +19391,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>14</v>
       </c>
@@ -19281,6 +19401,9 @@
       <c r="C88" t="s">
         <v>0</v>
       </c>
+      <c r="D88" t="s">
+        <v>1765</v>
+      </c>
       <c r="E88" t="s">
         <v>185</v>
       </c>
@@ -19300,7 +19423,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>14</v>
       </c>
@@ -19310,6 +19433,9 @@
       <c r="C89" t="s">
         <v>2</v>
       </c>
+      <c r="D89" t="s">
+        <v>1766</v>
+      </c>
       <c r="E89" t="s">
         <v>184</v>
       </c>
@@ -19329,7 +19455,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>14</v>
       </c>
@@ -19339,6 +19465,9 @@
       <c r="C90" t="s">
         <v>0</v>
       </c>
+      <c r="D90" t="s">
+        <v>1767</v>
+      </c>
       <c r="E90" t="s">
         <v>185</v>
       </c>
@@ -19358,7 +19487,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>14</v>
       </c>
@@ -19368,6 +19497,9 @@
       <c r="C91" t="s">
         <v>1</v>
       </c>
+      <c r="D91" t="s">
+        <v>1768</v>
+      </c>
       <c r="E91" t="s">
         <v>184</v>
       </c>
@@ -19387,7 +19519,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>14</v>
       </c>
@@ -19397,6 +19529,9 @@
       <c r="C92" t="s">
         <v>2</v>
       </c>
+      <c r="D92" t="s">
+        <v>1769</v>
+      </c>
       <c r="E92" t="s">
         <v>183</v>
       </c>
@@ -19416,7 +19551,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>14</v>
       </c>
@@ -19426,6 +19561,9 @@
       <c r="C93" t="s">
         <v>2</v>
       </c>
+      <c r="D93" t="s">
+        <v>1750</v>
+      </c>
       <c r="E93" t="s">
         <v>183</v>
       </c>
@@ -19451,7 +19589,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
@@ -19483,7 +19621,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
@@ -19512,7 +19650,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
@@ -19541,7 +19679,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
@@ -19573,7 +19711,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
@@ -19602,7 +19740,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
@@ -19634,7 +19772,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
@@ -19663,7 +19801,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
@@ -19695,7 +19833,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
@@ -19724,7 +19862,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
@@ -19753,7 +19891,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
@@ -19782,7 +19920,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
@@ -19817,7 +19955,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
@@ -19846,7 +19984,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
@@ -19875,7 +20013,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
@@ -19907,7 +20045,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
@@ -19936,7 +20074,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>15</v>
       </c>
@@ -19965,7 +20103,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>15</v>
       </c>
@@ -19997,7 +20135,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>15</v>
       </c>
@@ -20026,7 +20164,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>15</v>
       </c>
@@ -20055,7 +20193,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>15</v>
       </c>
@@ -20090,7 +20228,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>15</v>
       </c>
@@ -20122,7 +20260,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>15</v>
       </c>
@@ -20151,7 +20289,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
@@ -20171,7 +20309,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
@@ -20191,7 +20329,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
@@ -20211,7 +20349,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
@@ -20231,7 +20369,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
@@ -20251,7 +20389,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
@@ -20271,7 +20409,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
@@ -20291,7 +20429,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
@@ -20311,7 +20449,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
@@ -20331,7 +20469,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
@@ -20351,7 +20489,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
@@ -20371,7 +20509,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
@@ -20391,7 +20529,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
@@ -20411,7 +20549,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
@@ -20431,7 +20569,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>16</v>
       </c>
@@ -20451,7 +20589,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>16</v>
       </c>
@@ -20471,7 +20609,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>16</v>
       </c>
@@ -20491,7 +20629,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>16</v>
       </c>
@@ -20511,7 +20649,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>16</v>
       </c>
@@ -20531,7 +20669,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>16</v>
       </c>
@@ -20551,7 +20689,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>16</v>
       </c>
@@ -20571,7 +20709,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>16</v>
       </c>
@@ -20591,7 +20729,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>16</v>
       </c>
@@ -20611,7 +20749,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
@@ -20631,7 +20769,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
@@ -20651,7 +20789,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
@@ -20671,7 +20809,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
@@ -20691,7 +20829,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
@@ -20711,7 +20849,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
@@ -20731,7 +20869,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
@@ -20751,7 +20889,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
@@ -20771,7 +20909,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
@@ -20791,7 +20929,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
@@ -20811,7 +20949,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
@@ -20831,7 +20969,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>17</v>
       </c>
@@ -20851,7 +20989,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>17</v>
       </c>
@@ -20871,7 +21009,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>17</v>
       </c>
@@ -20891,7 +21029,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>17</v>
       </c>
@@ -20911,7 +21049,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>17</v>
       </c>
@@ -20931,7 +21069,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>17</v>
       </c>
@@ -20951,7 +21089,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>17</v>
       </c>
@@ -20971,7 +21109,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>17</v>
       </c>
@@ -20991,7 +21129,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>17</v>
       </c>
@@ -21011,7 +21149,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>17</v>
       </c>
@@ -21074,12 +21212,12 @@
       <selection sqref="A1:P150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -21129,895 +21267,895 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
@@ -22066,9 +22204,9 @@
       <selection sqref="A1:P150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -22118,895 +22256,895 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>17</v>
       </c>
@@ -23055,222 +23193,222 @@
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" customWidth="1"/>
+    <col min="1" max="1" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>1196</v>
       </c>

--- a/NetRealmsNanSetup/nanDECK/cards2.xlsx
+++ b/NetRealmsNanSetup/nanDECK/cards2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Twizt\OneDrive\Desktop\Github\NetRealm-XGCTCG\NetRealmsNanSetup\nanDECK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A659C1CF-EDCA-45F1-9C7A-865E72E44EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711BC80E-1E0F-4CF5-B16B-758AA69C7436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{B6057150-7C73-433A-9315-C43DECCCCE72}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="2" xr2:uid="{B6057150-7C73-433A-9315-C43DECCCCE72}"/>
   </bookViews>
   <sheets>
     <sheet name="Lands" sheetId="7" r:id="rId1"/>
@@ -5386,7 +5386,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5441,6 +5441,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -5469,7 +5475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5506,6 +5512,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7483,8 +7492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88527542-5C50-4249-AA54-8C9C5C54EA27}">
   <dimension ref="A1:S150"/>
   <sheetViews>
-    <sheetView topLeftCell="J22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7709,7 +7718,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -8136,7 +8145,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -9040,7 +9049,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -9280,7 +9289,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -10912,7 +10921,7 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -11271,7 +11280,7 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -15590,7 +15599,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>16</v>
       </c>
@@ -15620,7 +15629,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>16</v>
       </c>
@@ -15650,7 +15659,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>16</v>
       </c>
@@ -15713,7 +15722,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>16</v>
       </c>
@@ -15743,7 +15752,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>16</v>
       </c>
@@ -15773,7 +15782,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>16</v>
       </c>
@@ -15836,7 +15845,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>16</v>
       </c>
@@ -15866,7 +15875,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>16</v>
       </c>
@@ -15959,7 +15968,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>17</v>
       </c>
@@ -15989,7 +15998,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>17</v>
       </c>
@@ -16019,7 +16028,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>17</v>
       </c>
@@ -16049,7 +16058,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>17</v>
       </c>
@@ -16079,7 +16088,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>17</v>
       </c>
@@ -16112,7 +16121,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>17</v>
       </c>
@@ -16142,7 +16151,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>17</v>
       </c>
@@ -16172,7 +16181,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>17</v>
       </c>
@@ -16202,7 +16211,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>17</v>
       </c>
@@ -16232,7 +16241,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>17</v>
       </c>
@@ -16262,7 +16271,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>17</v>
       </c>
@@ -16292,7 +16301,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>17</v>
       </c>
@@ -16322,7 +16331,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>17</v>
       </c>
@@ -16352,7 +16361,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>17</v>
       </c>
@@ -16443,7 +16452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E2B55B-907C-44E7-A92E-00A1BB478166}">
   <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D76" sqref="D72:D93"/>
     </sheetView>
   </sheetViews>
